--- a/data/hotels_by_city/Houston/Houston_shard_75.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_75.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107929-Reviews-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,930 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r547678838-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107929</t>
+  </si>
+  <si>
+    <t>547678838</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has everything you need </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very pleasant stay to the place and I wasnt dissapointed. It may look beat up on the outside but the rooms are quite comfy with all you may need in it. Housekeeping is only once a week though, which sucks. :) </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r542140209-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542140209</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>LOUD refrigerator, LOUD air conditioning, no food anywhere nearby.</t>
+  </si>
+  <si>
+    <t>This place is near the oil and gas industry, and I suppose that is where they get their customers. It was refurbished in the early 90's, I think, and nothing has been done since then. There is the video player for video tapes, the refrigerator that sounds like a plane taking off, the rattly air conditioner. It's not worn, it's just old and the machinery keeps you from sleeping. Unless this place is really very convenient for where you are visiting, find an alternative.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded December 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2017</t>
+  </si>
+  <si>
+    <t>This place is near the oil and gas industry, and I suppose that is where they get their customers. It was refurbished in the early 90's, I think, and nothing has been done since then. There is the video player for video tapes, the refrigerator that sounds like a plane taking off, the rattly air conditioner. It's not worn, it's just old and the machinery keeps you from sleeping. Unless this place is really very convenient for where you are visiting, find an alternative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r535691749-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535691749</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Hotel was alright but the customer service was terrible</t>
+  </si>
+  <si>
+    <t>I regret having to make this posting since I have been a IHG member since 2014 and have been a Platinum member for the last couple of years since my work requires myself to be on the road for at least 80% of the time. I recently stayed at Houston-Westchase Candlewood Suites during the week of July 31-Aug.5. During this time, a bag of items went missing during one of the cleaning days. The items in the bag were valued at around $1000 (Asthma medicines, allergy medicines, prescription eyeglasses, engraved personalized items, etc.) I let the front desk know what had happened and the manager took half off of my hotel bill and filed an insurance claim. The issue is that the insurance denied my claim because the housekeeping said that they didn't take it. I  received this over a voice mail. I have been calling the insurance claimer over and over again, leaving voice messages, with no response back. I have reached out to IHG customer service without anything being resolved. I can understand if housekeeping didn't mean to throw something out and just didn't want to get into trouble. However, to just say "Oh well, since they said they didn't do it, it's not our fault," doesn't seem like the correct way to handle this situation. Especially when it involves medicines. If I had been able to talk with someone at all during this time, that would've been...I regret having to make this posting since I have been a IHG member since 2014 and have been a Platinum member for the last couple of years since my work requires myself to be on the road for at least 80% of the time. I recently stayed at Houston-Westchase Candlewood Suites during the week of July 31-Aug.5. During this time, a bag of items went missing during one of the cleaning days. The items in the bag were valued at around $1000 (Asthma medicines, allergy medicines, prescription eyeglasses, engraved personalized items, etc.) I let the front desk know what had happened and the manager took half off of my hotel bill and filed an insurance claim. The issue is that the insurance denied my claim because the housekeeping said that they didn't take it. I  received this over a voice mail. I have been calling the insurance claimer over and over again, leaving voice messages, with no response back. I have reached out to IHG customer service without anything being resolved. I can understand if housekeeping didn't mean to throw something out and just didn't want to get into trouble. However, to just say "Oh well, since they said they didn't do it, it's not our fault," doesn't seem like the correct way to handle this situation. Especially when it involves medicines. If I had been able to talk with someone at all during this time, that would've been at least a step in the right direction but as of right now, I have been just ignored. I will continue to reach out to all parties involved until this has been handled but the extreme disappointment in how this has been handled has made me weary of staying at another IHG property. #Platinummember #Businesstraveler #IHGMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>I regret having to make this posting since I have been a IHG member since 2014 and have been a Platinum member for the last couple of years since my work requires myself to be on the road for at least 80% of the time. I recently stayed at Houston-Westchase Candlewood Suites during the week of July 31-Aug.5. During this time, a bag of items went missing during one of the cleaning days. The items in the bag were valued at around $1000 (Asthma medicines, allergy medicines, prescription eyeglasses, engraved personalized items, etc.) I let the front desk know what had happened and the manager took half off of my hotel bill and filed an insurance claim. The issue is that the insurance denied my claim because the housekeeping said that they didn't take it. I  received this over a voice mail. I have been calling the insurance claimer over and over again, leaving voice messages, with no response back. I have reached out to IHG customer service without anything being resolved. I can understand if housekeeping didn't mean to throw something out and just didn't want to get into trouble. However, to just say "Oh well, since they said they didn't do it, it's not our fault," doesn't seem like the correct way to handle this situation. Especially when it involves medicines. If I had been able to talk with someone at all during this time, that would've been...I regret having to make this posting since I have been a IHG member since 2014 and have been a Platinum member for the last couple of years since my work requires myself to be on the road for at least 80% of the time. I recently stayed at Houston-Westchase Candlewood Suites during the week of July 31-Aug.5. During this time, a bag of items went missing during one of the cleaning days. The items in the bag were valued at around $1000 (Asthma medicines, allergy medicines, prescription eyeglasses, engraved personalized items, etc.) I let the front desk know what had happened and the manager took half off of my hotel bill and filed an insurance claim. The issue is that the insurance denied my claim because the housekeeping said that they didn't take it. I  received this over a voice mail. I have been calling the insurance claimer over and over again, leaving voice messages, with no response back. I have reached out to IHG customer service without anything being resolved. I can understand if housekeeping didn't mean to throw something out and just didn't want to get into trouble. However, to just say "Oh well, since they said they didn't do it, it's not our fault," doesn't seem like the correct way to handle this situation. Especially when it involves medicines. If I had been able to talk with someone at all during this time, that would've been at least a step in the right direction but as of right now, I have been just ignored. I will continue to reach out to all parties involved until this has been handled but the extreme disappointment in how this has been handled has made me weary of staying at another IHG property. #Platinummember #Businesstraveler #IHGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r501437779-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501437779</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff and clean, spacious rooms</t>
+  </si>
+  <si>
+    <t>We booked this room for Super Bowl 2017. The proximity to the dome is close and the hotel seem to be centrally located near malls, shopping and restaurants. The beds were comfortable and the experience was pleasant and quiet. We did not use the kitchen amenities but we were amazed with all that was offered. This was not a co ok and eat trip so we basically used the spacious restrooms, bed and TV. I accidentally left 2 of my brand new blouses hanging in the closets and was impressed that it was located in the lost and found department. My only request would be that they actually call the guests as a courtesy if they leave something by accident. Parking was a breeze and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We booked this room for Super Bowl 2017. The proximity to the dome is close and the hotel seem to be centrally located near malls, shopping and restaurants. The beds were comfortable and the experience was pleasant and quiet. We did not use the kitchen amenities but we were amazed with all that was offered. This was not a co ok and eat trip so we basically used the spacious restrooms, bed and TV. I accidentally left 2 of my brand new blouses hanging in the closets and was impressed that it was located in the lost and found department. My only request would be that they actually call the guests as a courtesy if they leave something by accident. Parking was a breeze and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r491053200-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491053200</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Just As advertised</t>
+  </si>
+  <si>
+    <t>The hotel was pretty much as advertised.  Quiet place with a very friendly staff.  Had a late departing flight and late checkout was no issue at all.  Only complaint was a stiff bed but to each their own.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r489492294-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489492294</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Room For Improvement</t>
+  </si>
+  <si>
+    <t>Checked in:  May 5th
+Checked out:  May 7th
+Number of floors:  Three floors and I stayed on the 2nd floor.  
+This was my first experience staying at any Candlewood Suites and I walked away conflicted about my stay.  My overall rating of this hotel will be a lukewarm "average", but I would give the front desk a D- (poor) with plenty of room for improvement.  Please read on for further clarification on my ratings.
+Location:  This hotel is located right off Beltway 8 near Westpark Drive with only one entrance in/out of the property via Hunton Drive.  
+Parking Lot:  This location has great lighting with plenty of parking spaces.  I do not foresee parking ever being an issue.  I did not see security patrolling the grounds like at other nearby hotels, but the parking lot has a safe and secure feeling.  
+Lobby/Front Desk:  The lobby is a bit small, but it is well maintained.  The front desk staff is very kind and courteous.  
+Room:  You enter the room via the kitchen/computer desk area followed by the bedroom on the left hand side.  At first glance the setup seems a bit off, but the room actually grows on you.  It is a bit smaller than the photos that I viewed online which is why I took plenty of photos to give the room an accurate representation.
+Kitchen:  I did not use any items in the kitchen area during my stay.  Having...Checked in:  May 5thChecked out:  May 7thNumber of floors:  Three floors and I stayed on the 2nd floor.  This was my first experience staying at any Candlewood Suites and I walked away conflicted about my stay.  My overall rating of this hotel will be a lukewarm "average", but I would give the front desk a D- (poor) with plenty of room for improvement.  Please read on for further clarification on my ratings.Location:  This hotel is located right off Beltway 8 near Westpark Drive with only one entrance in/out of the property via Hunton Drive.  Parking Lot:  This location has great lighting with plenty of parking spaces.  I do not foresee parking ever being an issue.  I did not see security patrolling the grounds like at other nearby hotels, but the parking lot has a safe and secure feeling.  Lobby/Front Desk:  The lobby is a bit small, but it is well maintained.  The front desk staff is very kind and courteous.  Room:  You enter the room via the kitchen/computer desk area followed by the bedroom on the left hand side.  At first glance the setup seems a bit off, but the room actually grows on you.  It is a bit smaller than the photos that I viewed online which is why I took plenty of photos to give the room an accurate representation.Kitchen:  I did not use any items in the kitchen area during my stay.  Having said that, please take a look at the photos that I took of this area to see if it will meet your needs.  Computer desk/dinning area:  This area dubs as both a computer and dinning area.  Very spacious.Internet:  This location has great internet connectivity.  I did not experience issues in this area during my stay.  Bedroom:  Typical IHG bedding which I welcomed because the comforter and pillows were very comfortable.  Two firm and soft pillows; total of four.Bathroom/Shower:  Oddly enough my room only had conditioner, bath and facial soap.  No shampoo or any other bathroom amenities.  I found this to be really odd, but thankfully I pack my own bathroom amenities.  Perhaps housekeeping was in a rush and forget to stock my room with these items?  Oddly enough the shower curtain did not have a "vinyl/plastic lining" to place inside the shower.  There was only a single cloth panel which became a little problematic because once it gets wet water tends to form outside of the shower area.  My suggestion would be to place at least two towels alongside the shower area to address this issue.  Late check out:  I requested a late check out during my stay and sadly housekeeping still knocked twice reminding me that checkout time was at 12 noon.  It would be great if the front desk would properly relay late check outs with housekeeping in order to offset this issue from occurring.  Perhaps this is why my "customer issue" occurred because housekeeping was making me feel "rushed" to check out even though I was still within my late check out time frame.  Resolving Customer Issues:  This is the area that the hotel gets it's lowest rating via my review.  I rate this area a D- due to poor followup.  So what was my issue?  I forgot my shaving kit during my stay and promptly contacted the front desk the following day.  They were able to locate my shaving kit and I made arrangements for them to charge my credit card and ship it directly to me.  I was informed to allow a "few days" for them to allocate a box and I would receive a follow up call with the outgoing tracking number.  Sadly, nearly 2 1/2 to 3 weeks elapsed and I never received that follow up call nor my shaving kit.  Luckily, I was back in the Houston area for Memorial Day weekend and I contacted the front desk for an update.  I was informed that they still had my shaving kit at their property and I stopped on by to retrieve it.  In all fairness, the front desk staff was very polite and friendly both in person and on the phone.  I have nothing but polite words to express for their professionalism, but sadly their follow up and actions taken once I was off the phone proved to be otherwise.  I find it unacceptable to set improper expectations and for not demonstrating any sense of urgency in returning my forgotten item.  This is not how you make your guests feel valued and appreciated for staying at your property.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Checked in:  May 5th
+Checked out:  May 7th
+Number of floors:  Three floors and I stayed on the 2nd floor.  
+This was my first experience staying at any Candlewood Suites and I walked away conflicted about my stay.  My overall rating of this hotel will be a lukewarm "average", but I would give the front desk a D- (poor) with plenty of room for improvement.  Please read on for further clarification on my ratings.
+Location:  This hotel is located right off Beltway 8 near Westpark Drive with only one entrance in/out of the property via Hunton Drive.  
+Parking Lot:  This location has great lighting with plenty of parking spaces.  I do not foresee parking ever being an issue.  I did not see security patrolling the grounds like at other nearby hotels, but the parking lot has a safe and secure feeling.  
+Lobby/Front Desk:  The lobby is a bit small, but it is well maintained.  The front desk staff is very kind and courteous.  
+Room:  You enter the room via the kitchen/computer desk area followed by the bedroom on the left hand side.  At first glance the setup seems a bit off, but the room actually grows on you.  It is a bit smaller than the photos that I viewed online which is why I took plenty of photos to give the room an accurate representation.
+Kitchen:  I did not use any items in the kitchen area during my stay.  Having...Checked in:  May 5thChecked out:  May 7thNumber of floors:  Three floors and I stayed on the 2nd floor.  This was my first experience staying at any Candlewood Suites and I walked away conflicted about my stay.  My overall rating of this hotel will be a lukewarm "average", but I would give the front desk a D- (poor) with plenty of room for improvement.  Please read on for further clarification on my ratings.Location:  This hotel is located right off Beltway 8 near Westpark Drive with only one entrance in/out of the property via Hunton Drive.  Parking Lot:  This location has great lighting with plenty of parking spaces.  I do not foresee parking ever being an issue.  I did not see security patrolling the grounds like at other nearby hotels, but the parking lot has a safe and secure feeling.  Lobby/Front Desk:  The lobby is a bit small, but it is well maintained.  The front desk staff is very kind and courteous.  Room:  You enter the room via the kitchen/computer desk area followed by the bedroom on the left hand side.  At first glance the setup seems a bit off, but the room actually grows on you.  It is a bit smaller than the photos that I viewed online which is why I took plenty of photos to give the room an accurate representation.Kitchen:  I did not use any items in the kitchen area during my stay.  Having said that, please take a look at the photos that I took of this area to see if it will meet your needs.  Computer desk/dinning area:  This area dubs as both a computer and dinning area.  Very spacious.Internet:  This location has great internet connectivity.  I did not experience issues in this area during my stay.  Bedroom:  Typical IHG bedding which I welcomed because the comforter and pillows were very comfortable.  Two firm and soft pillows; total of four.Bathroom/Shower:  Oddly enough my room only had conditioner, bath and facial soap.  No shampoo or any other bathroom amenities.  I found this to be really odd, but thankfully I pack my own bathroom amenities.  Perhaps housekeeping was in a rush and forget to stock my room with these items?  Oddly enough the shower curtain did not have a "vinyl/plastic lining" to place inside the shower.  There was only a single cloth panel which became a little problematic because once it gets wet water tends to form outside of the shower area.  My suggestion would be to place at least two towels alongside the shower area to address this issue.  Late check out:  I requested a late check out during my stay and sadly housekeeping still knocked twice reminding me that checkout time was at 12 noon.  It would be great if the front desk would properly relay late check outs with housekeeping in order to offset this issue from occurring.  Perhaps this is why my "customer issue" occurred because housekeeping was making me feel "rushed" to check out even though I was still within my late check out time frame.  Resolving Customer Issues:  This is the area that the hotel gets it's lowest rating via my review.  I rate this area a D- due to poor followup.  So what was my issue?  I forgot my shaving kit during my stay and promptly contacted the front desk the following day.  They were able to locate my shaving kit and I made arrangements for them to charge my credit card and ship it directly to me.  I was informed to allow a "few days" for them to allocate a box and I would receive a follow up call with the outgoing tracking number.  Sadly, nearly 2 1/2 to 3 weeks elapsed and I never received that follow up call nor my shaving kit.  Luckily, I was back in the Houston area for Memorial Day weekend and I contacted the front desk for an update.  I was informed that they still had my shaving kit at their property and I stopped on by to retrieve it.  In all fairness, the front desk staff was very polite and friendly both in person and on the phone.  I have nothing but polite words to express for their professionalism, but sadly their follow up and actions taken once I was off the phone proved to be otherwise.  I find it unacceptable to set improper expectations and for not demonstrating any sense of urgency in returning my forgotten item.  This is not how you make your guests feel valued and appreciated for staying at your property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r445777620-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445777620</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Great stay. Awesome service from Chastity!!</t>
+  </si>
+  <si>
+    <t>Flew into Houston for a friend's wedding. After reception, went to hotel to check in. Chastity was very welcoming and nice. Met a friend from the wedding and Chastity was able to put our rooms close together. She also provided us with free snacks.Stay could have not been any better!!!!Would definitely come back here in a heart beat.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r442053857-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442053857</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Great stay. awesome service</t>
+  </si>
+  <si>
+    <t>Stayed here for a night after a friend's wedding and the service was stupendous. Chastity provided amazing help and went out of her way to help us feel welcomed. Overall a great experience. Will stay again if ever in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r437194672-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437194672</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Great stay... with a surprise $50 charge on my credit card</t>
+  </si>
+  <si>
+    <t>The hotel is 20 min from downtown area but for the price it was perfect. Great amenities, clean room, and friendly staff. The only issues were the broken safe and the bathroom door that couldn't be locked. Other than those, everything was good.They put a $50 pending charge on my card which I'm sure it is just a temporary hold for incidentals and it will be dropped in a couple of days (it better be).Ps. For some reason they rejected the same review when I sent it to their website. Not sure why! It's a rather positive review.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r404457540-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404457540</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Free beer and snacks on Wednesdays, Service apartment feel</t>
+  </si>
+  <si>
+    <t>Visited houston for couple of weeks on an official trip and we landed on Candlewood Suites. It was cheaper than most luxury hotels but the rooms did not disappoint.. The rooms were spacious enouugh with fully functional kitchen. There was a mini gym which was useful especially if your an avid health freak.The highlight was Wednesday evenings. Free snacks, beer, wine and softdrinks. We got to mingle with some of the locals as well.. What i can say alcohol talks :).. The location is superb since its in the heart of city center. Plenty of good eats nearby albeit all slightly expensive. You will hardly find a cheap eating joint nearby (apart from Chipotle maybe)..Still this place was worth staying.. There was no breakfast deals available so rated 4/5.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Megan T, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Visited houston for couple of weeks on an official trip and we landed on Candlewood Suites. It was cheaper than most luxury hotels but the rooms did not disappoint.. The rooms were spacious enouugh with fully functional kitchen. There was a mini gym which was useful especially if your an avid health freak.The highlight was Wednesday evenings. Free snacks, beer, wine and softdrinks. We got to mingle with some of the locals as well.. What i can say alcohol talks :).. The location is superb since its in the heart of city center. Plenty of good eats nearby albeit all slightly expensive. You will hardly find a cheap eating joint nearby (apart from Chipotle maybe)..Still this place was worth staying.. There was no breakfast deals available so rated 4/5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r391152742-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391152742</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>A bad apple (unusual for Candlewood Suites)</t>
+  </si>
+  <si>
+    <t>Very disappointed.  I travel for my job 2-3 months at a time.  I usually pick Candlewood because they are clean and well furnished.  This one was a big mistake for me. The room itself is outstanding.  Beautiful furnishing, set up quite nice. The first night I stayed there was a moldy/mildewy smell.  It progressively got so bad that I had to leave a window cracked in order to stay in the room.  The maintenance came and "painted a wall and washed the AC" after I complained a couple of times.  Still just got worse.  They changed out the AC.  Still the room smelled.  Asked to be moved several times but they couldn't find an equivalent sized room.  I agreed to move into smaller room when the manager finally came to talk to me (DAYS later).  When I called the front desk to move they said they rented that one out.  Nothing else available.  The next day was cleaning day and the small rug I bought for the bathroom was gone when I got home.  No one knows anything about it.
+I called the 800 # listed on the website TWICE.  Both times was ASSURED something would be done.  They told me that the GM would be contacted and she would get in touch with me.  Never happened.  Finally  someone found a room and I moved in.  It was just cleaned and smelled ok. Unfortunately when I went to open the...Very disappointed.  I travel for my job 2-3 months at a time.  I usually pick Candlewood because they are clean and well furnished.  This one was a big mistake for me. The room itself is outstanding.  Beautiful furnishing, set up quite nice. The first night I stayed there was a moldy/mildewy smell.  It progressively got so bad that I had to leave a window cracked in order to stay in the room.  The maintenance came and "painted a wall and washed the AC" after I complained a couple of times.  Still just got worse.  They changed out the AC.  Still the room smelled.  Asked to be moved several times but they couldn't find an equivalent sized room.  I agreed to move into smaller room when the manager finally came to talk to me (DAYS later).  When I called the front desk to move they said they rented that one out.  Nothing else available.  The next day was cleaning day and the small rug I bought for the bathroom was gone when I got home.  No one knows anything about it.I called the 800 # listed on the website TWICE.  Both times was ASSURED something would be done.  They told me that the GM would be contacted and she would get in touch with me.  Never happened.  Finally  someone found a room and I moved in.  It was just cleaned and smelled ok. Unfortunately when I went to open the drapes (near the AC unit) i realized the floor was SOAKED underneath and warped so I knew it was an ongoing issue.  Maintenance came, dried the floor and replaced the AC.   2 days later the smell is so bad I have to move. Not just moldy but something a little rancid.  This time not another room, another hotel.The freezer in the panty did NOT keep the food frozen.  The ice cream was actually squeezable (like soup).  I didn't dare eat the frozen meals.  There has been one washer and one dryer out out of service the entire time.The work out room is nice but the TV never worked.The most disappointing thing in all this was the totally disregard the manager, GM and even the 800 number I called showed me.  No one came to talk to me, no one apologized (except one girl at the front desk).   No one talked about the missing rug.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Very disappointed.  I travel for my job 2-3 months at a time.  I usually pick Candlewood because they are clean and well furnished.  This one was a big mistake for me. The room itself is outstanding.  Beautiful furnishing, set up quite nice. The first night I stayed there was a moldy/mildewy smell.  It progressively got so bad that I had to leave a window cracked in order to stay in the room.  The maintenance came and "painted a wall and washed the AC" after I complained a couple of times.  Still just got worse.  They changed out the AC.  Still the room smelled.  Asked to be moved several times but they couldn't find an equivalent sized room.  I agreed to move into smaller room when the manager finally came to talk to me (DAYS later).  When I called the front desk to move they said they rented that one out.  Nothing else available.  The next day was cleaning day and the small rug I bought for the bathroom was gone when I got home.  No one knows anything about it.
+I called the 800 # listed on the website TWICE.  Both times was ASSURED something would be done.  They told me that the GM would be contacted and she would get in touch with me.  Never happened.  Finally  someone found a room and I moved in.  It was just cleaned and smelled ok. Unfortunately when I went to open the...Very disappointed.  I travel for my job 2-3 months at a time.  I usually pick Candlewood because they are clean and well furnished.  This one was a big mistake for me. The room itself is outstanding.  Beautiful furnishing, set up quite nice. The first night I stayed there was a moldy/mildewy smell.  It progressively got so bad that I had to leave a window cracked in order to stay in the room.  The maintenance came and "painted a wall and washed the AC" after I complained a couple of times.  Still just got worse.  They changed out the AC.  Still the room smelled.  Asked to be moved several times but they couldn't find an equivalent sized room.  I agreed to move into smaller room when the manager finally came to talk to me (DAYS later).  When I called the front desk to move they said they rented that one out.  Nothing else available.  The next day was cleaning day and the small rug I bought for the bathroom was gone when I got home.  No one knows anything about it.I called the 800 # listed on the website TWICE.  Both times was ASSURED something would be done.  They told me that the GM would be contacted and she would get in touch with me.  Never happened.  Finally  someone found a room and I moved in.  It was just cleaned and smelled ok. Unfortunately when I went to open the drapes (near the AC unit) i realized the floor was SOAKED underneath and warped so I knew it was an ongoing issue.  Maintenance came, dried the floor and replaced the AC.   2 days later the smell is so bad I have to move. Not just moldy but something a little rancid.  This time not another room, another hotel.The freezer in the panty did NOT keep the food frozen.  The ice cream was actually squeezable (like soup).  I didn't dare eat the frozen meals.  There has been one washer and one dryer out out of service the entire time.The work out room is nice but the TV never worked.The most disappointing thing in all this was the totally disregard the manager, GM and even the 800 number I called showed me.  No one came to talk to me, no one apologized (except one girl at the front desk).   No one talked about the missing rug.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r388732339-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388732339</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Much better since last time</t>
+  </si>
+  <si>
+    <t>I reviewed this hotel last December and rated it  a 3. We've stayed there a couple more times since and we are pleased with the difference. While still offering only queen bed rooms, the attitude and energy of the staff has improved greatly. Everyone we've met over our last few visits have been kind, courteous and attended to our requests. Kudos to the management for making this happen.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>CWSWestchase, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>I reviewed this hotel last December and rated it  a 3. We've stayed there a couple more times since and we are pleased with the difference. While still offering only queen bed rooms, the attitude and energy of the staff has improved greatly. Everyone we've met over our last few visits have been kind, courteous and attended to our requests. Kudos to the management for making this happen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r370469762-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370469762</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Very Nice hotel, comfy beds, and clean</t>
+  </si>
+  <si>
+    <t>It was a very nice hotel. My fiance, daughter, and I stayed there for 8 nights and loved it. The rooms were clean, beds were comfy, had a table and full kitchen with everything you need to cook and eat with. I also love that they didn't skimp out on the soaps and shampoo/conditioners...it was the good name brand stuff. It has a nice pool area and gym. Also they have a little convenient store type set up by the front with stuff like snacks, drinks, medicine, tooth brush, soaps. etc... The only thing I did not like is when we asked if we could see the room before we paid for the 8 night stay they said we could do a virtual tour online but did not want to let us see it in person for some unknown reason?? The rooms were well worth it and I am glad that it did not detour us from getting it. The staff was very nice and accommodating. Down fall is no free breakfast....but you can always cook your own in your full kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>It was a very nice hotel. My fiance, daughter, and I stayed there for 8 nights and loved it. The rooms were clean, beds were comfy, had a table and full kitchen with everything you need to cook and eat with. I also love that they didn't skimp out on the soaps and shampoo/conditioners...it was the good name brand stuff. It has a nice pool area and gym. Also they have a little convenient store type set up by the front with stuff like snacks, drinks, medicine, tooth brush, soaps. etc... The only thing I did not like is when we asked if we could see the room before we paid for the 8 night stay they said we could do a virtual tour online but did not want to let us see it in person for some unknown reason?? The rooms were well worth it and I am glad that it did not detour us from getting it. The staff was very nice and accommodating. Down fall is no free breakfast....but you can always cook your own in your full kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r361622563-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361622563</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Finders Keepers</t>
+  </si>
+  <si>
+    <t>The check in was quite smooth and the check in staff was very accommodating as I had attempted to cancel reservations for staff that we not needed. The room was spacious with a teal accent wall by the bed. The unit had a full size fridge and two burner stovetop for cooking.  The bed is foam so it felt soft but firm. The bathroom cabinetry has plenty of storage which looks barren as few amenities were provided.  The room was excessively muggy and I immediately walked over to the window unit to adjust it. In doing so I removed my work boots and left them by the curtain.  I tried several times to adjust the temperature and humidity of the room to no avail.  It made for a sleepless night and a late morning.  I had packed light and mistakingly left my boots by the window.  I called the day after checkout to see if they had been discovered and was promised a return phone call but never received one. I call several days later and was informed that no boots had been found by housekeeping.  I am certain I did not remove the boots from my room as I would have placed them in the government vehicle I was driving.  Don't accidentally leave anything, double and triple check, because there are no good Samaritans willing to return anything found especially an expensive pair of steel toed bootsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>The check in was quite smooth and the check in staff was very accommodating as I had attempted to cancel reservations for staff that we not needed. The room was spacious with a teal accent wall by the bed. The unit had a full size fridge and two burner stovetop for cooking.  The bed is foam so it felt soft but firm. The bathroom cabinetry has plenty of storage which looks barren as few amenities were provided.  The room was excessively muggy and I immediately walked over to the window unit to adjust it. In doing so I removed my work boots and left them by the curtain.  I tried several times to adjust the temperature and humidity of the room to no avail.  It made for a sleepless night and a late morning.  I had packed light and mistakingly left my boots by the window.  I called the day after checkout to see if they had been discovered and was promised a return phone call but never received one. I call several days later and was informed that no boots had been found by housekeeping.  I am certain I did not remove the boots from my room as I would have placed them in the government vehicle I was driving.  Don't accidentally leave anything, double and triple check, because there are no good Samaritans willing to return anything found especially an expensive pair of steel toed bootsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r346748367-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346748367</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 324 was lovely but the bed was SO noisy! You just rolled over and it sounded like the box springs we're going to break, and we are not heavy folks.  Time for a new bed support, Candlewood. Otherwise, nice people, soft pillows, and generally nice stay. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r317142667-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317142667</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Clean, Friendly Staff</t>
+  </si>
+  <si>
+    <t>This was very convenient to site of the seminars I was in Houston to attend. The room was clean and supplied with all of the basic cookware and utensils you may need. The free laundry was awesome, as I was there for two weeks. The only drawback was the distance to any restaurant or supermarket. However, this will not deter me from staying again on an extended business trip.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r312874273-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312874273</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>It's a Candlewood.</t>
+  </si>
+  <si>
+    <t>It's a typical Candlewood.  Rooms were clean.  Staff not overly friendly but not rude either.  What I hate about Candlewoods are that there always seems to be unsavory characters hanging out. I felt unsafe as a woman traveling alone. Men hanging out in the parking lot, in the bbq area, and in the laundry makes it very uncomfortable to leave the room in the evenings.  They are usually nearby a highway on/off ramp which means lots of noise all night long from the trucks on the highway.  One other complaint is their towel policy. Can't they bring it up to my room to swap out.  Why do I have to schlep the dirty ones down to the lobby.  Awkward! I understand that they are low cost so we expect to give up some of the amenities, but seriously?MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>It's a typical Candlewood.  Rooms were clean.  Staff not overly friendly but not rude either.  What I hate about Candlewoods are that there always seems to be unsavory characters hanging out. I felt unsafe as a woman traveling alone. Men hanging out in the parking lot, in the bbq area, and in the laundry makes it very uncomfortable to leave the room in the evenings.  They are usually nearby a highway on/off ramp which means lots of noise all night long from the trucks on the highway.  One other complaint is their towel policy. Can't they bring it up to my room to swap out.  Why do I have to schlep the dirty ones down to the lobby.  Awkward! I understand that they are low cost so we expect to give up some of the amenities, but seriously?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r311862846-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311862846</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Average... make your choice carefully</t>
+  </si>
+  <si>
+    <t>On the front reception desk there is a small basket token of candies.  The “lobby” is so small that it is like a bathroom size.  There is a printer with paper and a computer screen right on the other side of the reception desk which the guest can use.
+There is a big library of DVD (some 200 to 300 copies) prominently display behind the front desk that you can check out.  Not many hotel has this extra benefits.  I like that but I have seen plenty of movies and unless this is the month long stay, I do not use this benefit.
+There was no swimming pool nor a garden, the front parking lot is bare with no tree.
+Daily free of of USA today newspaper.  There is free coffee at the snack room, nothing great but will suffice if you are not too choosy.
+The location of the hotel is like middle of nowhere if you do not have a car.   The busy toll way is just next to the hotel but the noise did not bother me.  You must walk for 45 minutes towards the east and reaching South Gessner Rd to get an alternative of restaurants.
+The kitchen-stove-sink-kitchen cabinet area is designed such that it gave me the impression of sleeping in front of the kitchen.
+There is 3 venting machine in the laundry room and a small gym next to reception.
+The green hallway carpet...On the front reception desk there is a small basket token of candies.  The “lobby” is so small that it is like a bathroom size.  There is a printer with paper and a computer screen right on the other side of the reception desk which the guest can use.There is a big library of DVD (some 200 to 300 copies) prominently display behind the front desk that you can check out.  Not many hotel has this extra benefits.  I like that but I have seen plenty of movies and unless this is the month long stay, I do not use this benefit.There was no swimming pool nor a garden, the front parking lot is bare with no tree.Daily free of of USA today newspaper.  There is free coffee at the snack room, nothing great but will suffice if you are not too choosy.The location of the hotel is like middle of nowhere if you do not have a car.   The busy toll way is just next to the hotel but the noise did not bother me.  You must walk for 45 minutes towards the east and reaching South Gessner Rd to get an alternative of restaurants.The kitchen-stove-sink-kitchen cabinet area is designed such that it gave me the impression of sleeping in front of the kitchen.There is 3 venting machine in the laundry room and a small gym next to reception.The green hallway carpet smell musty, have the management heard of carpet steam cleaner?Overwhelming wood paint varnish inside the elevator.  The three wood panels were painted over and make the 10 seconds ride to the third floor unbearable.  I had to hold my breath.With a $130 a night for 6 night in September 2015, after the first night the next evening seeing that  the room was not make, I make a requested for housekeeping.  I was told that daily cleaning was not included in the weekly rate (they do it once a week if on a long term stay).  And true to that even on the 6th day no maid had come to my room (room#331 staying from 9/12 to 9/18).Took me $80 from the IAH airport to this hotel by taxi.  Should have booked the airport shutter for a cost of $25.Overall, in my opinion this hotel is average.  If I have more time to do a little bit of research I could locate a better condition hotel.If my review help you a bit, please click the helpful button for my effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>On the front reception desk there is a small basket token of candies.  The “lobby” is so small that it is like a bathroom size.  There is a printer with paper and a computer screen right on the other side of the reception desk which the guest can use.
+There is a big library of DVD (some 200 to 300 copies) prominently display behind the front desk that you can check out.  Not many hotel has this extra benefits.  I like that but I have seen plenty of movies and unless this is the month long stay, I do not use this benefit.
+There was no swimming pool nor a garden, the front parking lot is bare with no tree.
+Daily free of of USA today newspaper.  There is free coffee at the snack room, nothing great but will suffice if you are not too choosy.
+The location of the hotel is like middle of nowhere if you do not have a car.   The busy toll way is just next to the hotel but the noise did not bother me.  You must walk for 45 minutes towards the east and reaching South Gessner Rd to get an alternative of restaurants.
+The kitchen-stove-sink-kitchen cabinet area is designed such that it gave me the impression of sleeping in front of the kitchen.
+There is 3 venting machine in the laundry room and a small gym next to reception.
+The green hallway carpet...On the front reception desk there is a small basket token of candies.  The “lobby” is so small that it is like a bathroom size.  There is a printer with paper and a computer screen right on the other side of the reception desk which the guest can use.There is a big library of DVD (some 200 to 300 copies) prominently display behind the front desk that you can check out.  Not many hotel has this extra benefits.  I like that but I have seen plenty of movies and unless this is the month long stay, I do not use this benefit.There was no swimming pool nor a garden, the front parking lot is bare with no tree.Daily free of of USA today newspaper.  There is free coffee at the snack room, nothing great but will suffice if you are not too choosy.The location of the hotel is like middle of nowhere if you do not have a car.   The busy toll way is just next to the hotel but the noise did not bother me.  You must walk for 45 minutes towards the east and reaching South Gessner Rd to get an alternative of restaurants.The kitchen-stove-sink-kitchen cabinet area is designed such that it gave me the impression of sleeping in front of the kitchen.There is 3 venting machine in the laundry room and a small gym next to reception.The green hallway carpet smell musty, have the management heard of carpet steam cleaner?Overwhelming wood paint varnish inside the elevator.  The three wood panels were painted over and make the 10 seconds ride to the third floor unbearable.  I had to hold my breath.With a $130 a night for 6 night in September 2015, after the first night the next evening seeing that  the room was not make, I make a requested for housekeeping.  I was told that daily cleaning was not included in the weekly rate (they do it once a week if on a long term stay).  And true to that even on the 6th day no maid had come to my room (room#331 staying from 9/12 to 9/18).Took me $80 from the IAH airport to this hotel by taxi.  Should have booked the airport shutter for a cost of $25.Overall, in my opinion this hotel is average.  If I have more time to do a little bit of research I could locate a better condition hotel.If my review help you a bit, please click the helpful button for my effort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r278446918-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278446918</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>I stayed here for two months because was very close to the workplace. Good suite and the service. The personnel is very gentle and helped me if I had questions.The place was clean. A little bit far from restaurants and food market shops: the nearest is at 2,5 km. You need to have a car.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r273611574-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273611574</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Hard to get to but a great place to stay</t>
+  </si>
+  <si>
+    <t>We like Candlewood Suites because of their large rooms and full kitchen. This one did not fail us. Staff was okay, not special. Bed was very comfortable. Wall thermastat didn't work, but the one on the unit did.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r266813904-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266813904</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Average-ish</t>
+  </si>
+  <si>
+    <t>At first appearance, the front desk staff was friendly. The small work-out room is clean. The bed was comfortable. Location is near (not walking distance) the Kroger store and restaurants. Now for the bad stuff. There was hair all over the bathroom floor when I first got there - ugh not mopped. There was old food and grime splatter all over the fridge next to the sink. Ick. Carpets need cleaned. They don't clean the rooms every day (which is fine for an "extended stay" hotel). But, after my first day, someone had been in my room and opened the drapes, but still nothing was cleaned. Next morning, I realized someone had opened and used my brand new foundation makeup. I otherwise had to wonder, now, if the  person used my makeup applicator, and went rifling through the rest of my belongings.  Thankfully I did not have valuables in the room I was there only two nights. I would never stay there again. If you stay here, I would recommend taking your valuables with you or keeping them locked up.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Megan T, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>At first appearance, the front desk staff was friendly. The small work-out room is clean. The bed was comfortable. Location is near (not walking distance) the Kroger store and restaurants. Now for the bad stuff. There was hair all over the bathroom floor when I first got there - ugh not mopped. There was old food and grime splatter all over the fridge next to the sink. Ick. Carpets need cleaned. They don't clean the rooms every day (which is fine for an "extended stay" hotel). But, after my first day, someone had been in my room and opened the drapes, but still nothing was cleaned. Next morning, I realized someone had opened and used my brand new foundation makeup. I otherwise had to wonder, now, if the  person used my makeup applicator, and went rifling through the rest of my belongings.  Thankfully I did not have valuables in the room I was there only two nights. I would never stay there again. If you stay here, I would recommend taking your valuables with you or keeping them locked up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r262979518-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262979518</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Temporary Housing</t>
+  </si>
+  <si>
+    <t>I usually write about Restaurants and Hotels, when I am on vacation.  This time however, I had to evacuate my condo due to a fire.  My great insurance adjuster from Triple A arranged for me to stay at the Candlewood Suites.  I am forever grateful, because not only is the location ideal to major freeways, it also offers all the amenities from home.  Due to a large refrigerator/freezer I was able to selvage all my food.  The room has a microwave and cook top for basic meals, and they offer free wifi and washer/dryer facilities. You can even get a good cup of coffee for free and purchase some necessities.  They also have an exercise room for the health conscious.  Housekeeping is done weekly, so nobody will bother you on a daily basis.  I can recommend this hotel to a business traveler or a family vacationing in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually write about Restaurants and Hotels, when I am on vacation.  This time however, I had to evacuate my condo due to a fire.  My great insurance adjuster from Triple A arranged for me to stay at the Candlewood Suites.  I am forever grateful, because not only is the location ideal to major freeways, it also offers all the amenities from home.  Due to a large refrigerator/freezer I was able to selvage all my food.  The room has a microwave and cook top for basic meals, and they offer free wifi and washer/dryer facilities. You can even get a good cup of coffee for free and purchase some necessities.  They also have an exercise room for the health conscious.  Housekeeping is done weekly, so nobody will bother you on a daily basis.  I can recommend this hotel to a business traveler or a family vacationing in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r259798670-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259798670</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Tired hotel</t>
+  </si>
+  <si>
+    <t>This hotel is tired. The lighting in the hotel is dreary. The lobby is dreary. The rooms are dreary. The hallways and my room smelled musty. The neighborhood is a little dreary. I stayed here for a business meeting because the Holiday Inn across the highway was booked. I ate breakfast at the Holiday Inn and it seemed to be much more clean and fresh.  The only positive thing about the hotel was that the rooms are suites which gives you a little more space.MoreShow less</t>
+  </si>
+  <si>
+    <t>Megan T, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is tired. The lighting in the hotel is dreary. The lobby is dreary. The rooms are dreary. The hallways and my room smelled musty. The neighborhood is a little dreary. I stayed here for a business meeting because the Holiday Inn across the highway was booked. I ate breakfast at the Holiday Inn and it seemed to be much more clean and fresh.  The only positive thing about the hotel was that the rooms are suites which gives you a little more space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r254660741-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254660741</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Clean, large room</t>
+  </si>
+  <si>
+    <t>This hotel is nice. The standard room is huge, with full kitchen, full-size fridge, large desk, and a comfortable bed. I was expecting pool and courtyard like my last Candlewood I stayed - I was wrong, this hotel doesn't have those. But that's my fault for not fully reading it before I book. The room is very clean. All things are supplied - and can request more in front desk if you need anything. There are also dvd movies to check out.The bed is comfortable, and there is little noise. But I'm not sure why I kept waking up at night, three times each night. Perhaps it's just travel fatigue. AC works OK. It's not centralized, so make sure you adjusted it properly. You need to select Heating or Cooling, then enter desired temperature.Only minor thing is, the internet kept being disconnected and reconnected on the first day. But it's better on second day of my stay.Oh a suggestion to the hotel - your alarm clock... can you make it lighted version? It's so difficult to tell time when waking up in late night.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is nice. The standard room is huge, with full kitchen, full-size fridge, large desk, and a comfortable bed. I was expecting pool and courtyard like my last Candlewood I stayed - I was wrong, this hotel doesn't have those. But that's my fault for not fully reading it before I book. The room is very clean. All things are supplied - and can request more in front desk if you need anything. There are also dvd movies to check out.The bed is comfortable, and there is little noise. But I'm not sure why I kept waking up at night, three times each night. Perhaps it's just travel fatigue. AC works OK. It's not centralized, so make sure you adjusted it properly. You need to select Heating or Cooling, then enter desired temperature.Only minor thing is, the internet kept being disconnected and reconnected on the first day. But it's better on second day of my stay.Oh a suggestion to the hotel - your alarm clock... can you make it lighted version? It's so difficult to tell time when waking up in late night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r237329166-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237329166</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Good hotel for short trip and long stay</t>
+  </si>
+  <si>
+    <t>Located beside West Sam Houston Parkway. Though this is far away from International airport, but close to Downtown and Galleria Mall. Hotel room has full kitchen facility, Full size refrigerator, dishwasher, oven, microwave and utensils. Added facilities are laundry room with washer dryer, Gym facility and good collection of DVDs. Laundry facility is free.Hotel staffs are very good and cooperative. They help in printing and scanning documents if required. Hotel rate is reasonable.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r236129648-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236129648</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly inviting</t>
+  </si>
+  <si>
+    <t>Booked this hotel as transit. But I am going back in less than 2 weeks! Serene, accessible, and very affordable. In fact it offers greater value for the rates charged. As they say, the taste of the pudding is in the eating. Go see for yourself!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r233541964-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233541964</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>I'm going to miss it</t>
+  </si>
+  <si>
+    <t>After nearly ten months staying here I probably know it better than most. It's clean, quiet, and updated. The staff is amazing, love them all. They are constantly improving the property and take real pride in it. Weekly get togethers help bring the guests together and you really can start to feel at home.Head over, kick up your feet and stay a while.Oh yeah...internet is moderately good, useable but not what it could be.MoreShow less</t>
+  </si>
+  <si>
+    <t>CWSWestchase, Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>After nearly ten months staying here I probably know it better than most. It's clean, quiet, and updated. The staff is amazing, love them all. They are constantly improving the property and take real pride in it. Weekly get togethers help bring the guests together and you really can start to feel at home.Head over, kick up your feet and stay a while.Oh yeah...internet is moderately good, useable but not what it could be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r205719198-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205719198</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Good for Business</t>
+  </si>
+  <si>
+    <t>The hotel is located close to a nice area of Houston with a lot of restaurants and close the markets. The hotel staff was very friendly and the room was vey big with all the appliances working well. The hotel needs some renovation. The internet was in a high speed and I had problem to adjust the air conditioningMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded June 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is located close to a nice area of Houston with a lot of restaurants and close the markets. The hotel staff was very friendly and the room was vey big with all the appliances working well. The hotel needs some renovation. The internet was in a high speed and I had problem to adjust the air conditioningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r191637988-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191637988</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>NOT SPECIAL BUT I APPRECIATE IT FOR</t>
+  </si>
+  <si>
+    <t>I appreciate that there is reserve room for frequent/loyal customers like us and the room assigned to us was nice, however, I did not appreciate that the front desk person at the time of check in was not appreciative of our business. I did not appreciate that because I went to the snack room, they assumed that I bought some snacks and charged my credit card when it was only coffee which was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded February 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2014</t>
+  </si>
+  <si>
+    <t>I appreciate that there is reserve room for frequent/loyal customers like us and the room assigned to us was nice, however, I did not appreciate that the front desk person at the time of check in was not appreciative of our business. I did not appreciate that because I went to the snack room, they assumed that I bought some snacks and charged my credit card when it was only coffee which was free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r186278401-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186278401</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>I would give this a B plus.</t>
+  </si>
+  <si>
+    <t>I was a little reluctant to stay here because of mixed reviews.  Yes, the lobby is small.  The property is in excellent condition.  They recently had a remodel and the place looked almost new to me.  The only signs of wear in my room were one worn leather chair and the front of the dishwasher showed some age.  Otherwise the room was great.  My wife and I are pretty particular about air conditioner noise.  We stayed in winter, so we barely turned on the heat for a while.  It was noisy.  So loud that you could not hear the tv.  I would think this would be a problem in the summer months.  There is no bar or restaurant, but there is a large Holiday Inn directly across the street along with a Cheddars restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a little reluctant to stay here because of mixed reviews.  Yes, the lobby is small.  The property is in excellent condition.  They recently had a remodel and the place looked almost new to me.  The only signs of wear in my room were one worn leather chair and the front of the dishwasher showed some age.  Otherwise the room was great.  My wife and I are pretty particular about air conditioner noise.  We stayed in winter, so we barely turned on the heat for a while.  It was noisy.  So loud that you could not hear the tv.  I would think this would be a problem in the summer months.  There is no bar or restaurant, but there is a large Holiday Inn directly across the street along with a Cheddars restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r159999720-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159999720</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Worse Than County Jail</t>
+  </si>
+  <si>
+    <t>On business travel, Hampton Inns, Marriott Courtyards, and the like are the preferred lodging chains.  Because the nearby preferred hotels were in the $250 range, my traveling companion and I reluctantly accepted corporate travel's suggestion of a Candlewood Suites.  Never again.We booked non-smoking but only one n/s was available.  I took it and the boss was stuck with smoking.  I might as well have been in smoking myself because of the strong odor.  I thought it was because of the HVAC or the musty bedding, but the clerk the next morning said it was because the floor above was all smoking.  Nice.  Also, the boss had to change rooms twice because of non-functioning air conditioning.  We escaped the next morning, one day early, having found an affordable Courtyard not too far away.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Felicia M, General Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>On business travel, Hampton Inns, Marriott Courtyards, and the like are the preferred lodging chains.  Because the nearby preferred hotels were in the $250 range, my traveling companion and I reluctantly accepted corporate travel's suggestion of a Candlewood Suites.  Never again.We booked non-smoking but only one n/s was available.  I took it and the boss was stuck with smoking.  I might as well have been in smoking myself because of the strong odor.  I thought it was because of the HVAC or the musty bedding, but the clerk the next morning said it was because the floor above was all smoking.  Nice.  Also, the boss had to change rooms twice because of non-functioning air conditioning.  We escaped the next morning, one day early, having found an affordable Courtyard not too far away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r151565280-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151565280</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Would not recommend</t>
+  </si>
+  <si>
+    <t>Friendly, attentive staff, but otherwise avoid the property. Not much in the area in the way of food options, and each room I was moved to had something wrong. Broken AC unit. Then a clogged sink. Then an iron that didn't work. Property upkeep is not a priority here. To top off the experience, I was woken up at 3am by a drunken lout knocking on my door who clearly had the wrong room. It took 20 minutes for the front desk to finally address the issue, and I was only offered 2,000 priority points as compensation for such an awful stay. For those in the IHG system, that isn't enough to get you anything, anywhere. Go elsewhere when in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Felicia M, General Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Friendly, attentive staff, but otherwise avoid the property. Not much in the area in the way of food options, and each room I was moved to had something wrong. Broken AC unit. Then a clogged sink. Then an iron that didn't work. Property upkeep is not a priority here. To top off the experience, I was woken up at 3am by a drunken lout knocking on my door who clearly had the wrong room. It took 20 minutes for the front desk to finally address the issue, and I was only offered 2,000 priority points as compensation for such an awful stay. For those in the IHG system, that isn't enough to get you anything, anywhere. Go elsewhere when in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r149265383-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149265383</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Nice rooms, very disinterested, unfriendly service.</t>
+  </si>
+  <si>
+    <t>I needed a pet-friendly hotel on my trip through Houston, and I have stayed at Candlewood before, so I booked here.  Despite the fact that the entrance to the hotel is nearly impossible to find at night (I didn't see any signage, and just followed a car through a parking lot of an apartment complex to get here, I did finally make it.  If I didn't have reservations, I would have walked out when I got into the "lobby".  It truly looked and smelled like a dorm, very institutional looking.  The lady at the desk was the same one that put me on hold and forgot about me when I called to ask a question about my reservation.  She couldn't have been less friendly, she was slow, didn't acknowledge anyone when they came in.  A lady came to the desk saying that she had been called by the operations manager about something, thinking maybe a package had been left for her, and the lady behind the counter shrugged her shoulders and made no attempt to help her.  She said you'll have to ask tomorrow, I don't know anything.  The person checking you in is the one who sets the tone for the stay, I didn't have a good feeling about the hotel if this is the caliber of employee at the desk.  The room itself was nice, it had a full refridgerator, dishwasher, and dishes.  The bed was very comfortable,...I needed a pet-friendly hotel on my trip through Houston, and I have stayed at Candlewood before, so I booked here.  Despite the fact that the entrance to the hotel is nearly impossible to find at night (I didn't see any signage, and just followed a car through a parking lot of an apartment complex to get here, I did finally make it.  If I didn't have reservations, I would have walked out when I got into the "lobby".  It truly looked and smelled like a dorm, very institutional looking.  The lady at the desk was the same one that put me on hold and forgot about me when I called to ask a question about my reservation.  She couldn't have been less friendly, she was slow, didn't acknowledge anyone when they came in.  A lady came to the desk saying that she had been called by the operations manager about something, thinking maybe a package had been left for her, and the lady behind the counter shrugged her shoulders and made no attempt to help her.  She said you'll have to ask tomorrow, I don't know anything.  The person checking you in is the one who sets the tone for the stay, I didn't have a good feeling about the hotel if this is the caliber of employee at the desk.  The room itself was nice, it had a full refridgerator, dishwasher, and dishes.  The bed was very comfortable, I have been travelling for weeks, and this was the most comfortable bed in a long time.  The pet fee is reasonable, $15 dollars is worth it.  I know the hotel has just been under renovation, but the stains on the carpet outside the elevators, and the lobby area need some work to add to the appeal of the common areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Felicia M, General Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded January 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2013</t>
+  </si>
+  <si>
+    <t>I needed a pet-friendly hotel on my trip through Houston, and I have stayed at Candlewood before, so I booked here.  Despite the fact that the entrance to the hotel is nearly impossible to find at night (I didn't see any signage, and just followed a car through a parking lot of an apartment complex to get here, I did finally make it.  If I didn't have reservations, I would have walked out when I got into the "lobby".  It truly looked and smelled like a dorm, very institutional looking.  The lady at the desk was the same one that put me on hold and forgot about me when I called to ask a question about my reservation.  She couldn't have been less friendly, she was slow, didn't acknowledge anyone when they came in.  A lady came to the desk saying that she had been called by the operations manager about something, thinking maybe a package had been left for her, and the lady behind the counter shrugged her shoulders and made no attempt to help her.  She said you'll have to ask tomorrow, I don't know anything.  The person checking you in is the one who sets the tone for the stay, I didn't have a good feeling about the hotel if this is the caliber of employee at the desk.  The room itself was nice, it had a full refridgerator, dishwasher, and dishes.  The bed was very comfortable,...I needed a pet-friendly hotel on my trip through Houston, and I have stayed at Candlewood before, so I booked here.  Despite the fact that the entrance to the hotel is nearly impossible to find at night (I didn't see any signage, and just followed a car through a parking lot of an apartment complex to get here, I did finally make it.  If I didn't have reservations, I would have walked out when I got into the "lobby".  It truly looked and smelled like a dorm, very institutional looking.  The lady at the desk was the same one that put me on hold and forgot about me when I called to ask a question about my reservation.  She couldn't have been less friendly, she was slow, didn't acknowledge anyone when they came in.  A lady came to the desk saying that she had been called by the operations manager about something, thinking maybe a package had been left for her, and the lady behind the counter shrugged her shoulders and made no attempt to help her.  She said you'll have to ask tomorrow, I don't know anything.  The person checking you in is the one who sets the tone for the stay, I didn't have a good feeling about the hotel if this is the caliber of employee at the desk.  The room itself was nice, it had a full refridgerator, dishwasher, and dishes.  The bed was very comfortable, I have been travelling for weeks, and this was the most comfortable bed in a long time.  The pet fee is reasonable, $15 dollars is worth it.  I know the hotel has just been under renovation, but the stains on the carpet outside the elevators, and the lobby area need some work to add to the appeal of the common areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r136006456-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136006456</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>Same dull entrance as per usual for C.wood but the rooms! Super!!! So comfortable and well appointed. I usually stay across the street at Holiday Inn but no more! Much better price and MUCH better accomodations. I gather this place has had a recent face-lift. If so, it worked. The staff...wow...could not be any sweeter. The general manager, Felicia Mitchell, actually to the time to draw me a map to the location for a very important meeting. I did not trust my GPS. She was spot on! I did not catch the names of the other two young ladies working there but they were every bit as nice.I will be back to this one...Oh, beds were super comfortable...slept like a babyMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Same dull entrance as per usual for C.wood but the rooms! Super!!! So comfortable and well appointed. I usually stay across the street at Holiday Inn but no more! Much better price and MUCH better accomodations. I gather this place has had a recent face-lift. If so, it worked. The staff...wow...could not be any sweeter. The general manager, Felicia Mitchell, actually to the time to draw me a map to the location for a very important meeting. I did not trust my GPS. She was spot on! I did not catch the names of the other two young ladies working there but they were every bit as nice.I will be back to this one...Oh, beds were super comfortable...slept like a babyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r128077735-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128077735</t>
+  </si>
+  <si>
+    <t>04/17/2012</t>
+  </si>
+  <si>
+    <t>Really time for a refurbishment</t>
+  </si>
+  <si>
+    <t>Made a reservation at this location due to working in the area.  Received a letter a couple days later saying they are working on the property.They should have refurbished this place years ago.  Really old and beat up.  Very noisy- both from the highway and other rooms.  19" tube TV with fuzzy cable. Odd smells in rooms and hallways.  Elevator takes forever- better to just hike the stairs.   I did not see any work going on.I would not recomend staying here until it has been fully refurbished.  There are a three brand new hotels in the area.No breakfast- you can fight for space in the tiny "pantry" in the morning to try and get something to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded May 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2012</t>
+  </si>
+  <si>
+    <t>Made a reservation at this location due to working in the area.  Received a letter a couple days later saying they are working on the property.They should have refurbished this place years ago.  Really old and beat up.  Very noisy- both from the highway and other rooms.  19" tube TV with fuzzy cable. Odd smells in rooms and hallways.  Elevator takes forever- better to just hike the stairs.   I did not see any work going on.I would not recomend staying here until it has been fully refurbished.  There are a three brand new hotels in the area.No breakfast- you can fight for space in the tiny "pantry" in the morning to try and get something to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r110114014-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>110114014</t>
+  </si>
+  <si>
+    <t>05/27/2011</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>From the time I arrived, I felt special.  They GET customer service.  My room was fresh smelling, and I liked having the ice maker in my room.  This isn't a full service hotel, but the service from everyone was first class.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r86837054-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>86837054</t>
+  </si>
+  <si>
+    <t>11/12/2010</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I was sent to this hotel after the one I had a reservation at for 3 months was overbooked for night 1.  The bed, VERY comfy!  The sheets were soft, the place was clean, the desk clerk was cheerful and helpful, the water pressure...to die for!!!!  Met the GM the next morning on the way out. She asked about my stay, thanked me for staying, recommended a few places I'd asked about, was also cheerful, professional and friendly.  Had I not prepaid a week with the first hotel I would Have ABSOLUTELY changed hotels.  I still might.  Nice place for a long or short stay.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r59420916-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59420916</t>
+  </si>
+  <si>
+    <t>03/24/2010</t>
+  </si>
+  <si>
+    <t>A perfectly good business hotel</t>
+  </si>
+  <si>
+    <t>1-room studio had all the amenties I needed, was clean, quiet and a really good value for the rate.  The best part about this Candlewood location is the night clerk named Cassie.  She's GREAT!  Anything you need - any problem you have - any question that arises, Cassie is ready &amp; willing to help - and can find a solution.  Like someone else said "Cassie ROCKS!".Other than that - pillows good, iron good, ironing board cover a little too fluffy, towels good, bathroom good, makeup lighting average, air system good, internet okay, kitchen outfitted adequately, fitness center adequate, location good for Westchase District business, parking good, access good.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r56529549-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56529549</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>Cassie Rocks</t>
+  </si>
+  <si>
+    <t>While this is a two star hotel, with Cassie at the front desk, I felt it was a four plus star hotel.  She remembers your name, wife's name and even your preference in food.  They need to pay this lady very well!  Thank you Cassie!</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r6036376-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6036376</t>
+  </si>
+  <si>
+    <t>10/31/2006</t>
+  </si>
+  <si>
+    <t>Eh...It's a room and nothing to run to or from</t>
+  </si>
+  <si>
+    <t>The older gentleman who checked us in was really nice. He was very willing to help with anything about the city, I didn't really need because I lived there for years but he was great. He even let us check in really early, I think it was around 11am and it was a holiday weekend. It was much needed because we'd just driven for the past 12 hours! We had a studio which was roomy but the one-bedroom that a friend had at the other houston location, town &amp; country, seemed a lot nicer. 
+Okay, back to the hotel. It is in a great location. For those of you unfamiliar with Houston, the area known as Westchase is pretty much the galleria area. It's just on the opposite end of the street Westheimer. But you can be to the galleria in under 10 minutes either by taking the backwards way on the toll road to 59N to 610 or by taking the less congested streets (like Richmond) straight up towards the Galleria Mall/Area.  This particular property is pretty secluded since it's right off of the toll road. There's a small/nice apartment complex next door and that's about it. But just a couple lights away in any direction (less than 5 mins) there are gas stations, drug stores, fast food, grocery etc. 
+When we got off of the elevator there was a very strong food smell. My boyfriend wasn't too crazy...The older gentleman who checked us in was really nice. He was very willing to help with anything about the city, I didn't really need because I lived there for years but he was great. He even let us check in really early, I think it was around 11am and it was a holiday weekend. It was much needed because we'd just driven for the past 12 hours! We had a studio which was roomy but the one-bedroom that a friend had at the other houston location, town &amp; country, seemed a lot nicer. Okay, back to the hotel. It is in a great location. For those of you unfamiliar with Houston, the area known as Westchase is pretty much the galleria area. It's just on the opposite end of the street Westheimer. But you can be to the galleria in under 10 minutes either by taking the backwards way on the toll road to 59N to 610 or by taking the less congested streets (like Richmond) straight up towards the Galleria Mall/Area.  This particular property is pretty secluded since it's right off of the toll road. There's a small/nice apartment complex next door and that's about it. But just a couple lights away in any direction (less than 5 mins) there are gas stations, drug stores, fast food, grocery etc. When we got off of the elevator there was a very strong food smell. My boyfriend wasn't too crazy about smelling somebody's attempt at whipping up a Mexican meal but I guess being in Texas they thought they'd give it a try, lol. The room was average. It was smaller than I thought it would be. Not small, it was regular hotel room size, I just expected more of a large suite since it had a full kitchen. Otherwise, it was clean and neat. It included a cd player and the freezer had an ice maker so there was no inconvenience of having to find the ice machine or dealing with filling up ice trays and waiting for them to freeze. There were some stains on the floor by the stove/sink but with a full kitchen in the room that's not a big surprise. The exhaust fan over the stove didn't seem to be doing much but the window in the room actually opened so that helped a lot. Now I know why we could smell other people's food when we came in. Since these have kitchens, there's no continental breakfast but there is a small store on the main floor where you can buy snacks, microwavable food, canned food...pretty much everything. If you've never stayed at a Candlewood I'll let you know that the store (The Candlewood Cupboard) is based on the honor system....meaning there's no cashier. Just take what  you want and either put the money in a drop box or write down  your room number and put it in the box so they can bill your room. It's a pretty neat idea. The cupboard is in the same room as the laundry room - washing/drying is free, you just buy the detergent.  There's also an exercise facility with more than enough equipment because nobody was ever in there. To sum it up, it's definitely no frills or thrills but it's a VERY convienent place to stay - location, amenities, peaceful, highway access. And if you book a couple of weeks ahead through their website you can get a really good deal. Fair warning: The closer to the date  you want to stay, the higher the price and less deals. Oh yeah, and if you're a member of priority club then you can earn points/miles here too.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2006</t>
+  </si>
+  <si>
+    <t>The older gentleman who checked us in was really nice. He was very willing to help with anything about the city, I didn't really need because I lived there for years but he was great. He even let us check in really early, I think it was around 11am and it was a holiday weekend. It was much needed because we'd just driven for the past 12 hours! We had a studio which was roomy but the one-bedroom that a friend had at the other houston location, town &amp; country, seemed a lot nicer. 
+Okay, back to the hotel. It is in a great location. For those of you unfamiliar with Houston, the area known as Westchase is pretty much the galleria area. It's just on the opposite end of the street Westheimer. But you can be to the galleria in under 10 minutes either by taking the backwards way on the toll road to 59N to 610 or by taking the less congested streets (like Richmond) straight up towards the Galleria Mall/Area.  This particular property is pretty secluded since it's right off of the toll road. There's a small/nice apartment complex next door and that's about it. But just a couple lights away in any direction (less than 5 mins) there are gas stations, drug stores, fast food, grocery etc. 
+When we got off of the elevator there was a very strong food smell. My boyfriend wasn't too crazy...The older gentleman who checked us in was really nice. He was very willing to help with anything about the city, I didn't really need because I lived there for years but he was great. He even let us check in really early, I think it was around 11am and it was a holiday weekend. It was much needed because we'd just driven for the past 12 hours! We had a studio which was roomy but the one-bedroom that a friend had at the other houston location, town &amp; country, seemed a lot nicer. Okay, back to the hotel. It is in a great location. For those of you unfamiliar with Houston, the area known as Westchase is pretty much the galleria area. It's just on the opposite end of the street Westheimer. But you can be to the galleria in under 10 minutes either by taking the backwards way on the toll road to 59N to 610 or by taking the less congested streets (like Richmond) straight up towards the Galleria Mall/Area.  This particular property is pretty secluded since it's right off of the toll road. There's a small/nice apartment complex next door and that's about it. But just a couple lights away in any direction (less than 5 mins) there are gas stations, drug stores, fast food, grocery etc. When we got off of the elevator there was a very strong food smell. My boyfriend wasn't too crazy about smelling somebody's attempt at whipping up a Mexican meal but I guess being in Texas they thought they'd give it a try, lol. The room was average. It was smaller than I thought it would be. Not small, it was regular hotel room size, I just expected more of a large suite since it had a full kitchen. Otherwise, it was clean and neat. It included a cd player and the freezer had an ice maker so there was no inconvenience of having to find the ice machine or dealing with filling up ice trays and waiting for them to freeze. There were some stains on the floor by the stove/sink but with a full kitchen in the room that's not a big surprise. The exhaust fan over the stove didn't seem to be doing much but the window in the room actually opened so that helped a lot. Now I know why we could smell other people's food when we came in. Since these have kitchens, there's no continental breakfast but there is a small store on the main floor where you can buy snacks, microwavable food, canned food...pretty much everything. If you've never stayed at a Candlewood I'll let you know that the store (The Candlewood Cupboard) is based on the honor system....meaning there's no cashier. Just take what  you want and either put the money in a drop box or write down  your room number and put it in the box so they can bill your room. It's a pretty neat idea. The cupboard is in the same room as the laundry room - washing/drying is free, you just buy the detergent.  There's also an exercise facility with more than enough equipment because nobody was ever in there. To sum it up, it's definitely no frills or thrills but it's a VERY convienent place to stay - location, amenities, peaceful, highway access. And if you book a couple of weeks ahead through their website you can get a really good deal. Fair warning: The closer to the date  you want to stay, the higher the price and less deals. Oh yeah, and if you're a member of priority club then you can earn points/miles here too.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1465,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1497,2665 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>215</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>249</v>
+      </c>
+      <c r="X29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>273</v>
+      </c>
+      <c r="X32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>290</v>
+      </c>
+      <c r="X34" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>305</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>306</v>
+      </c>
+      <c r="X36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>322</v>
+      </c>
+      <c r="J39" t="s">
+        <v>323</v>
+      </c>
+      <c r="K39" t="s">
+        <v>324</v>
+      </c>
+      <c r="L39" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>326</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40" t="s">
+        <v>329</v>
+      </c>
+      <c r="K40" t="s">
+        <v>330</v>
+      </c>
+      <c r="L40" t="s">
+        <v>331</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>332</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" t="s">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s">
+        <v>337</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_75.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_75.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r593072315-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107929</t>
+  </si>
+  <si>
+    <t>593072315</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Loved This Place</t>
+  </si>
+  <si>
+    <t>My first time staying at a Candlewood Suites i was impressed having a kitchen with a full fridge stove top and a dishwasher and microwave also had a VCR/DVD combo the bed was very comfortable staff was great  i would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r577427959-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577427959</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Clesn budget facility</t>
+  </si>
+  <si>
+    <t>Not so easy to get to if heading south.  The check in staff was quite rude.  The facility accepted the corporate card at booking but at arrival I was told I had to use my own card unless I had a written authorization.  If a state law travel agent should have known but if a hotel policy they should have advised the agent.  Nevertheless when I questioned the situation I was told I could find another hotel if I did not like the policy.  Kind of odd given I am a Spire Elite with IHG.  No offer of amenity points until I asked for them.  After that encounter the staff for the rest of the stay was quite nice.Room is very roomy and clean but the bed is not so comfortable.  My back is hurting after two days there.This is a budget facility so I suppose you get what you pay for.No other real service as this is an extended stay facility.Rates are reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Not so easy to get to if heading south.  The check in staff was quite rude.  The facility accepted the corporate card at booking but at arrival I was told I had to use my own card unless I had a written authorization.  If a state law travel agent should have known but if a hotel policy they should have advised the agent.  Nevertheless when I questioned the situation I was told I could find another hotel if I did not like the policy.  Kind of odd given I am a Spire Elite with IHG.  No offer of amenity points until I asked for them.  After that encounter the staff for the rest of the stay was quite nice.Room is very roomy and clean but the bed is not so comfortable.  My back is hurting after two days there.This is a budget facility so I suppose you get what you pay for.No other real service as this is an extended stay facility.Rates are reasonable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r547678838-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107929</t>
-  </si>
-  <si>
     <t>547678838</t>
   </si>
   <si>
@@ -177,9 +225,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r542140209-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -232,6 +277,42 @@
   </si>
   <si>
     <t>I regret having to make this posting since I have been a IHG member since 2014 and have been a Platinum member for the last couple of years since my work requires myself to be on the road for at least 80% of the time. I recently stayed at Houston-Westchase Candlewood Suites during the week of July 31-Aug.5. During this time, a bag of items went missing during one of the cleaning days. The items in the bag were valued at around $1000 (Asthma medicines, allergy medicines, prescription eyeglasses, engraved personalized items, etc.) I let the front desk know what had happened and the manager took half off of my hotel bill and filed an insurance claim. The issue is that the insurance denied my claim because the housekeeping said that they didn't take it. I  received this over a voice mail. I have been calling the insurance claimer over and over again, leaving voice messages, with no response back. I have reached out to IHG customer service without anything being resolved. I can understand if housekeeping didn't mean to throw something out and just didn't want to get into trouble. However, to just say "Oh well, since they said they didn't do it, it's not our fault," doesn't seem like the correct way to handle this situation. Especially when it involves medicines. If I had been able to talk with someone at all during this time, that would've been...I regret having to make this posting since I have been a IHG member since 2014 and have been a Platinum member for the last couple of years since my work requires myself to be on the road for at least 80% of the time. I recently stayed at Houston-Westchase Candlewood Suites during the week of July 31-Aug.5. During this time, a bag of items went missing during one of the cleaning days. The items in the bag were valued at around $1000 (Asthma medicines, allergy medicines, prescription eyeglasses, engraved personalized items, etc.) I let the front desk know what had happened and the manager took half off of my hotel bill and filed an insurance claim. The issue is that the insurance denied my claim because the housekeeping said that they didn't take it. I  received this over a voice mail. I have been calling the insurance claimer over and over again, leaving voice messages, with no response back. I have reached out to IHG customer service without anything being resolved. I can understand if housekeeping didn't mean to throw something out and just didn't want to get into trouble. However, to just say "Oh well, since they said they didn't do it, it's not our fault," doesn't seem like the correct way to handle this situation. Especially when it involves medicines. If I had been able to talk with someone at all during this time, that would've been at least a step in the right direction but as of right now, I have been just ignored. I will continue to reach out to all parties involved until this has been handled but the extreme disappointment in how this has been handled has made me weary of staying at another IHG property. #Platinummember #Businesstraveler #IHGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r521131305-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>521131305</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Stay During Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>The people working there at Candlewood Suites were great.  They were very friendly and helpful.They are exceptional employees.  Even though we had to change rooms twice the employees werevery , very nice.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r509827107-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509827107</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Friendly Staff, my second home away from home</t>
+  </si>
+  <si>
+    <t>Staff are great, wonderful and friendly. They always go above and beyond. The manager is friendly and ready to help always. I have stayed in this hotel for the 3rd time and I cannot wait to visit again. Rooms are always cleaned.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r501437779-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
@@ -322,6 +403,57 @@
 Kitchen:  I did not use any items in the kitchen area during my stay.  Having...Checked in:  May 5thChecked out:  May 7thNumber of floors:  Three floors and I stayed on the 2nd floor.  This was my first experience staying at any Candlewood Suites and I walked away conflicted about my stay.  My overall rating of this hotel will be a lukewarm "average", but I would give the front desk a D- (poor) with plenty of room for improvement.  Please read on for further clarification on my ratings.Location:  This hotel is located right off Beltway 8 near Westpark Drive with only one entrance in/out of the property via Hunton Drive.  Parking Lot:  This location has great lighting with plenty of parking spaces.  I do not foresee parking ever being an issue.  I did not see security patrolling the grounds like at other nearby hotels, but the parking lot has a safe and secure feeling.  Lobby/Front Desk:  The lobby is a bit small, but it is well maintained.  The front desk staff is very kind and courteous.  Room:  You enter the room via the kitchen/computer desk area followed by the bedroom on the left hand side.  At first glance the setup seems a bit off, but the room actually grows on you.  It is a bit smaller than the photos that I viewed online which is why I took plenty of photos to give the room an accurate representation.Kitchen:  I did not use any items in the kitchen area during my stay.  Having said that, please take a look at the photos that I took of this area to see if it will meet your needs.  Computer desk/dinning area:  This area dubs as both a computer and dinning area.  Very spacious.Internet:  This location has great internet connectivity.  I did not experience issues in this area during my stay.  Bedroom:  Typical IHG bedding which I welcomed because the comforter and pillows were very comfortable.  Two firm and soft pillows; total of four.Bathroom/Shower:  Oddly enough my room only had conditioner, bath and facial soap.  No shampoo or any other bathroom amenities.  I found this to be really odd, but thankfully I pack my own bathroom amenities.  Perhaps housekeeping was in a rush and forget to stock my room with these items?  Oddly enough the shower curtain did not have a "vinyl/plastic lining" to place inside the shower.  There was only a single cloth panel which became a little problematic because once it gets wet water tends to form outside of the shower area.  My suggestion would be to place at least two towels alongside the shower area to address this issue.  Late check out:  I requested a late check out during my stay and sadly housekeeping still knocked twice reminding me that checkout time was at 12 noon.  It would be great if the front desk would properly relay late check outs with housekeeping in order to offset this issue from occurring.  Perhaps this is why my "customer issue" occurred because housekeeping was making me feel "rushed" to check out even though I was still within my late check out time frame.  Resolving Customer Issues:  This is the area that the hotel gets it's lowest rating via my review.  I rate this area a D- due to poor followup.  So what was my issue?  I forgot my shaving kit during my stay and promptly contacted the front desk the following day.  They were able to locate my shaving kit and I made arrangements for them to charge my credit card and ship it directly to me.  I was informed to allow a "few days" for them to allocate a box and I would receive a follow up call with the outgoing tracking number.  Sadly, nearly 2 1/2 to 3 weeks elapsed and I never received that follow up call nor my shaving kit.  Luckily, I was back in the Houston area for Memorial Day weekend and I contacted the front desk for an update.  I was informed that they still had my shaving kit at their property and I stopped on by to retrieve it.  In all fairness, the front desk staff was very polite and friendly both in person and on the phone.  I have nothing but polite words to express for their professionalism, but sadly their follow up and actions taken once I was off the phone proved to be otherwise.  I find it unacceptable to set improper expectations and for not demonstrating any sense of urgency in returning my forgotten item.  This is not how you make your guests feel valued and appreciated for staying at your property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r464758801-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464758801</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean, but irritating nits like no coffee in break room</t>
+  </si>
+  <si>
+    <t>I really liked this hotel and wanted to give a good rating but...Staff was very friendly and helpful - I think it was Joanne. Rooms were nice and clean and comfy.Only problem was that on the 2nd day, there was no coffee in the break room. The coffee machine was dispensing water. When I asked Joanne, she said they would order it. There as a coffee maker in the room, but as I was trying to use it, the filter pack of coffee ripped. I was running late and did not have time to go get another filter.I wish they had better control of their inventory and kept some backup coffee handy. Is it too much to expect a cup of coffee in the break room in the morning? Chances are that this won't happen during your visit. But it may. If stuff like this doesn't bother you, you should book a room in this hotel. Otherwise, if the little details bother you, maybe you should try another location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Megan T, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>I really liked this hotel and wanted to give a good rating but...Staff was very friendly and helpful - I think it was Joanne. Rooms were nice and clean and comfy.Only problem was that on the 2nd day, there was no coffee in the break room. The coffee machine was dispensing water. When I asked Joanne, she said they would order it. There as a coffee maker in the room, but as I was trying to use it, the filter pack of coffee ripped. I was running late and did not have time to go get another filter.I wish they had better control of their inventory and kept some backup coffee handy. Is it too much to expect a cup of coffee in the break room in the morning? Chances are that this won't happen during your visit. But it may. If stuff like this doesn't bother you, you should book a room in this hotel. Otherwise, if the little details bother you, maybe you should try another location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r450603807-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450603807</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>This was the first time for me to stay at this brand hotel. The room space was big with basic kitchen facilities. Very good for family traveling. Really value for money. Location was convenient just nest to main road and easy access.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Megan T, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>This was the first time for me to stay at this brand hotel. The room space was big with basic kitchen facilities. Very good for family traveling. Really value for money. Location was convenient just nest to main road and easy access.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r445777620-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -337,9 +469,6 @@
     <t>Flew into Houston for a friend's wedding. After reception, went to hotel to check in. Chastity was very welcoming and nice. Met a friend from the wedding and Chastity was able to put our rooms close together. She also provided us with free snacks.Stay could have not been any better!!!!Would definitely come back here in a heart beat.</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r442053857-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -373,6 +502,51 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r426831852-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426831852</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Awesome Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we got to our room we had a problem with our AC and Angenette (not sure if that's how you spell her name) went over and beyond the call of duty to make it right for us. It was late, we were tired and she found us another room,  inspected it, and brought the keys to our room! Awesome service! She is definitely an asset to Candlewoods Suites. Last our our room did not disappoint, we highly recommend this hotel! </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r421886762-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421886762</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>A bad and noisy place to stay...run away.. .Won't go again</t>
+  </si>
+  <si>
+    <t>Stayed here from labor day weekend (/9/3 to 9/5/2016). The place is very noisy...and the room air conditioners and the fridge make enough noise level to make you sleepless. Even though, it says non-smoking rooms the entire hotel is filled with smoke smell.... i won;t stay again and won;t recommend if you need a good night restMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Megan T, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here from labor day weekend (/9/3 to 9/5/2016). The place is very noisy...and the room air conditioners and the fridge make enough noise level to make you sleepless. Even though, it says non-smoking rooms the entire hotel is filled with smoke smell.... i won;t stay again and won;t recommend if you need a good night restMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r404457540-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -389,12 +563,6 @@
   </si>
   <si>
     <t>July 2016</t>
-  </si>
-  <si>
-    <t>Megan T, Director of Sales at Candlewood Suites Houston Westchase, responded to this reviewResponded September 26, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 26, 2016</t>
   </si>
   <si>
     <t>Visited houston for couple of weeks on an official trip and we landed on Candlewood Suites. It was cheaper than most luxury hotels but the rooms did not disappoint.. The rooms were spacious enouugh with fully functional kitchen. There was a mini gym which was useful especially if your an avid health freak.The highlight was Wednesday evenings. Free snacks, beer, wine and softdrinks. We got to mingle with some of the locals as well.. What i can say alcohol talks :).. The location is superb since its in the heart of city center. Plenty of good eats nearby albeit all slightly expensive. You will hardly find a cheap eating joint nearby (apart from Chipotle maybe)..Still this place was worth staying.. There was no breakfast deals available so rated 4/5.More</t>
@@ -453,6 +621,51 @@
     <t>I reviewed this hotel last December and rated it  a 3. We've stayed there a couple more times since and we are pleased with the difference. While still offering only queen bed rooms, the attitude and energy of the staff has improved greatly. Everyone we've met over our last few visits have been kind, courteous and attended to our requests. Kudos to the management for making this happen.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r374507664-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374507664</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Do you like to be left alone?</t>
+  </si>
+  <si>
+    <t>You either like or dislike this kind of hotel. First off I feel at home here......the basics of the candlewood is they are a minimalist type of hotel. Your room is only cleaned once per week so if you have a one week stay you wont get it cleaned. But you should know this going into it. It totally has an apartment feel that way and the fact that it has a kitchenette helps too..... While im staying here I do not go out to eat and just take a trip to the local grocer and stock up. That way im getting the meals I want the way I want! The staff are very nice and accommodating when you need them and you feel like they know you. Great job guys! MoreShow less</t>
+  </si>
+  <si>
+    <t>You either like or dislike this kind of hotel. First off I feel at home here......the basics of the candlewood is they are a minimalist type of hotel. Your room is only cleaned once per week so if you have a one week stay you wont get it cleaned. But you should know this going into it. It totally has an apartment feel that way and the fact that it has a kitchenette helps too..... While im staying here I do not go out to eat and just take a trip to the local grocer and stock up. That way im getting the meals I want the way I want! The staff are very nice and accommodating when you need them and you feel like they know you. Great job guys! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r373697900-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373697900</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>no attention to details</t>
+  </si>
+  <si>
+    <t>Signed up for long term stay and very disappointed. 1. tv in workout room was out for at least 5 weeks2. havoc system did not function properly.3. guest allowed to stay at hotel and the cats that resided with her had fleas. no action.4. wireless very intermittent.Several of the visiting staff from other hotels were great but overall it was very sketchyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Signed up for long term stay and very disappointed. 1. tv in workout room was out for at least 5 weeks2. havoc system did not function properly.3. guest allowed to stay at hotel and the cats that resided with her had fleas. no action.4. wireless very intermittent.Several of the visiting staff from other hotels were great but overall it was very sketchyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r370469762-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -489,9 +702,6 @@
     <t>The check in was quite smooth and the check in staff was very accommodating as I had attempted to cancel reservations for staff that we not needed. The room was spacious with a teal accent wall by the bed. The unit had a full size fridge and two burner stovetop for cooking.  The bed is foam so it felt soft but firm. The bathroom cabinetry has plenty of storage which looks barren as few amenities were provided.  The room was excessively muggy and I immediately walked over to the window unit to adjust it. In doing so I removed my work boots and left them by the curtain.  I tried several times to adjust the temperature and humidity of the room to no avail.  It made for a sleepless night and a late morning.  I had packed light and mistakingly left my boots by the window.  I called the day after checkout to see if they had been discovered and was promised a return phone call but never received one. I call several days later and was informed that no boots had been found by housekeeping.  I am certain I did not remove the boots from my room as I would have placed them in the government vehicle I was driving.  Don't accidentally leave anything, double and triple check, because there are no good Samaritans willing to return anything found especially an expensive pair of steel toed bootsMoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded April 20, 2016</t>
   </si>
   <si>
@@ -517,6 +727,60 @@
   </si>
   <si>
     <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r332718522-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332718522</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Good hotel, but questionable service and why no king beds?</t>
+  </si>
+  <si>
+    <t>Having stayed in a few different Candlwood Suites around the coiuntry, we've usually enjoyed our stays at this brand. While this hotel is a good hotel, it doesn't live up to Candlewood standards. We've stayed there twice now and have not been able to reserve a king bed yet. I don't know if they don't exist here, or they're in short supply. Our reservations were made well in advance, but no king beds available. We sleep in a king bed at home, and are used to that luxury. Also, the staff is inconsistent. The night girl looked bored and wanted to be anywhere else but there having to talk to guests. The day girl was a delight.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Having stayed in a few different Candlwood Suites around the coiuntry, we've usually enjoyed our stays at this brand. While this hotel is a good hotel, it doesn't live up to Candlewood standards. We've stayed there twice now and have not been able to reserve a king bed yet. I don't know if they don't exist here, or they're in short supply. Our reservations were made well in advance, but no king beds available. We sleep in a king bed at home, and are used to that luxury. Also, the staff is inconsistent. The night girl looked bored and wanted to be anywhere else but there having to talk to guests. The day girl was a delight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r324940920-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324940920</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Manager </t>
+  </si>
+  <si>
+    <t>Clean hotel and comfortable rooms.They even have a reasonably priced lobby store if you need to pick up a late snack or dinner.The only issue here is, nearly all the employees act like their job is a prison sentence. They never say hello or seem to care that your a guest. One gentleman said hello to me.If I can get a smile from the office, I'm lucky. Their sales manager, Megan is excellent! The rooms get cleaned once a week and they do a good job! You will be happy. Maybe they will get a little friendlier....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Clean hotel and comfortable rooms.They even have a reasonably priced lobby store if you need to pick up a late snack or dinner.The only issue here is, nearly all the employees act like their job is a prison sentence. They never say hello or seem to care that your a guest. One gentleman said hello to me.If I can get a smile from the office, I'm lucky. Their sales manager, Megan is excellent! The rooms get cleaned once a week and they do a good job! You will be happy. Maybe they will get a little friendlier....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r317142667-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
@@ -599,6 +863,54 @@
 The green hallway carpet...On the front reception desk there is a small basket token of candies.  The “lobby” is so small that it is like a bathroom size.  There is a printer with paper and a computer screen right on the other side of the reception desk which the guest can use.There is a big library of DVD (some 200 to 300 copies) prominently display behind the front desk that you can check out.  Not many hotel has this extra benefits.  I like that but I have seen plenty of movies and unless this is the month long stay, I do not use this benefit.There was no swimming pool nor a garden, the front parking lot is bare with no tree.Daily free of of USA today newspaper.  There is free coffee at the snack room, nothing great but will suffice if you are not too choosy.The location of the hotel is like middle of nowhere if you do not have a car.   The busy toll way is just next to the hotel but the noise did not bother me.  You must walk for 45 minutes towards the east and reaching South Gessner Rd to get an alternative of restaurants.The kitchen-stove-sink-kitchen cabinet area is designed such that it gave me the impression of sleeping in front of the kitchen.There is 3 venting machine in the laundry room and a small gym next to reception.The green hallway carpet smell musty, have the management heard of carpet steam cleaner?Overwhelming wood paint varnish inside the elevator.  The three wood panels were painted over and make the 10 seconds ride to the third floor unbearable.  I had to hold my breath.With a $130 a night for 6 night in September 2015, after the first night the next evening seeing that  the room was not make, I make a requested for housekeeping.  I was told that daily cleaning was not included in the weekly rate (they do it once a week if on a long term stay).  And true to that even on the 6th day no maid had come to my room (room#331 staying from 9/12 to 9/18).Took me $80 from the IAH airport to this hotel by taxi.  Should have booked the airport shutter for a cost of $25.Overall, in my opinion this hotel is average.  If I have more time to do a little bit of research I could locate a better condition hotel.If my review help you a bit, please click the helpful button for my effort.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r307296095-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307296095</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Rude Rude Rude</t>
+  </si>
+  <si>
+    <t>The girl working the front desk named Deidre needs to be fired. I arrived at the hotel front desk and nobody was there for at least 5 minutes. I used the desk phone to call for assistance. She had a very nasty attitude. Her entire disposition was just offsetting. Then I had issues with my reservation. Needless to say, I ended up cancelling my reservation and checked into a place around the corner. The general manager needs to teach his employees something about etiquette!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Megan T, General Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>The girl working the front desk named Deidre needs to be fired. I arrived at the hotel front desk and nobody was there for at least 5 minutes. I used the desk phone to call for assistance. She had a very nasty attitude. Her entire disposition was just offsetting. Then I had issues with my reservation. Needless to say, I ended up cancelling my reservation and checked into a place around the corner. The general manager needs to teach his employees something about etiquette!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r290369219-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290369219</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Nice rooms, not safest location</t>
+  </si>
+  <si>
+    <t>Lady at front desk was nice and showed us around first. Rooms wee nice and good space and nice furnishings. Place is not in the safest area, however, and smelled strongly of people's cooking (lady said most of their extended stay residents cook a lot of Indian food). Good deals long term but I prefer a better location. Traffic can be rough in Houston so stay near where you are working or have to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Lady at front desk was nice and showed us around first. Rooms wee nice and good space and nice furnishings. Place is not in the safest area, however, and smelled strongly of people's cooking (lady said most of their extended stay residents cook a lot of Indian food). Good deals long term but I prefer a better location. Traffic can be rough in Houston so stay near where you are working or have to be.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r278446918-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -662,6 +974,36 @@
     <t>At first appearance, the front desk staff was friendly. The small work-out room is clean. The bed was comfortable. Location is near (not walking distance) the Kroger store and restaurants. Now for the bad stuff. There was hair all over the bathroom floor when I first got there - ugh not mopped. There was old food and grime splatter all over the fridge next to the sink. Ick. Carpets need cleaned. They don't clean the rooms every day (which is fine for an "extended stay" hotel). But, after my first day, someone had been in my room and opened the drapes, but still nothing was cleaned. Next morning, I realized someone had opened and used my brand new foundation makeup. I otherwise had to wonder, now, if the  person used my makeup applicator, and went rifling through the rest of my belongings.  Thankfully I did not have valuables in the room I was there only two nights. I would never stay there again. If you stay here, I would recommend taking your valuables with you or keeping them locked up.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r266144296-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266144296</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent Candlewood Suites</t>
+  </si>
+  <si>
+    <t>I stay at Candlewood Suites all over the USA. This property ranks among the best because of it's cleanliness, friendly staff, well stocked Candlewood Cupboard and up to date fitness center. If you plan on staying here, you need to know their policies. Housekeeping is done once a week, however you can request it more often. The rooms are like studio apartments. If that privacy appeals to you, then stay here. I will next time I'm in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r264328110-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264328110</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Business Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is great as like a home. Easy to escape to tollways and about few miles to Interstate 10 Highway. Only few miles to Chinatown on Bellaire and business stores on Westhemier  Rd too.  One thing the business office is small and there is no chair to sit in the lobby hall.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r262979518-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -722,6 +1064,39 @@
     <t>This hotel is nice. The standard room is huge, with full kitchen, full-size fridge, large desk, and a comfortable bed. I was expecting pool and courtyard like my last Candlewood I stayed - I was wrong, this hotel doesn't have those. But that's my fault for not fully reading it before I book. The room is very clean. All things are supplied - and can request more in front desk if you need anything. There are also dvd movies to check out.The bed is comfortable, and there is little noise. But I'm not sure why I kept waking up at night, three times each night. Perhaps it's just travel fatigue. AC works OK. It's not centralized, so make sure you adjusted it properly. You need to select Heating or Cooling, then enter desired temperature.Only minor thing is, the internet kept being disconnected and reconnected on the first day. But it's better on second day of my stay.Oh a suggestion to the hotel - your alarm clock... can you make it lighted version? It's so difficult to tell time when waking up in late night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r245347083-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245347083</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>Very nice room with Kitchenette</t>
+  </si>
+  <si>
+    <t>Stopped here for the night with my wife while on business in the Houston area.  The room was very clean and my wife really liked the Kitchenette in our room.  We arrived late and was able to buy a few food items in the hotel store and cook them in our room.  Far better then eating out when traveling.  They also have a washer and drier guests can use for free which was a big help too.  The front desk staff were very nice helpful.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r243138536-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243138536</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Definitely best customer service from Ms. Sharee at the front desk. Rooms were very clean, you can rent movies, games, crock pots, plus free washing.  Will be back for sure!! Thanks For Making My SWAC Stay A Great Success!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r237329166-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -779,6 +1154,42 @@
     <t>After nearly ten months staying here I probably know it better than most. It's clean, quiet, and updated. The staff is amazing, love them all. They are constantly improving the property and take real pride in it. Weekly get togethers help bring the guests together and you really can start to feel at home.Head over, kick up your feet and stay a while.Oh yeah...internet is moderately good, useable but not what it could be.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r219917841-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219917841</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Great fro long term stays</t>
+  </si>
+  <si>
+    <t>The hotel itself is very clean and well keptCheck in was  very quick even though i did not have a reservation. Elizabeth and Tanya was very nice and helpful during my check in and check out. Very friendly staffRoom I stayed was a studio kind room. Had a very well equipped kitchen with all the plates, silverware. very nicely furnished  room. Only problem is the shower curtain, its cloth therefore it does not keep the water inside the tub</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r216491333-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216491333</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>For the price asked, excellent value</t>
+  </si>
+  <si>
+    <t>While there's nothing extraordinary about this hotel, it clearly fit the bill for every penny of its price - clear rooms, location relatively convenient for the major Houston transport arteries, decent free internet connection. The hotel staff had a bit of the "I don't know/not sure" attitude about the surroundings of the hotel but otherwise very friendly and polite. The neighborhood the hotel located in is nice but from what I can tell there was nothing within the walking distance so you had to drive either way.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r205719198-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -851,6 +1262,45 @@
     <t>I was a little reluctant to stay here because of mixed reviews.  Yes, the lobby is small.  The property is in excellent condition.  They recently had a remodel and the place looked almost new to me.  The only signs of wear in my room were one worn leather chair and the front of the dishwasher showed some age.  Otherwise the room was great.  My wife and I are pretty particular about air conditioner noise.  We stayed in winter, so we barely turned on the heat for a while.  It was noisy.  So loud that you could not hear the tv.  I would think this would be a problem in the summer months.  There is no bar or restaurant, but there is a large Holiday Inn directly across the street along with a Cheddars restaurant.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r180254146-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180254146</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Good price, nice staff and clean room. Good price, nice staff and clean room. Good price, nice staff and clean room. Good price, nice staff and clean room. Good price, nice staff and clean room. Good price, nice staff and clean room. Good price, nice staff and clean room. Good price, nice staff and clean room. Good price, nice staff and clean room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r178508652-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178508652</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Roaches!</t>
+  </si>
+  <si>
+    <t>This place has roaches. Maybe its because they clean the room once a week or their pest control people are incompetent, I have no clue. I have been here for almost a week and have had encounters with many roaches at night, in the morning before going to work and must mention that I am terrified of them but had to kill a few. I'm here for another week and am not looking forward to it. If you are as terrified of roaches as I am STAY WAY!MoreShow less</t>
+  </si>
+  <si>
+    <t>Felicia M, General Manager at Candlewood Suites Houston Westchase, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>This place has roaches. Maybe its because they clean the room once a week or their pest control people are incompetent, I have no clue. I have been here for almost a week and have had encounters with many roaches at night, in the morning before going to work and must mention that I am terrified of them but had to kill a few. I'm here for another week and am not looking forward to it. If you are as terrified of roaches as I am STAY WAY!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r159999720-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1379,42 @@
     <t>I needed a pet-friendly hotel on my trip through Houston, and I have stayed at Candlewood before, so I booked here.  Despite the fact that the entrance to the hotel is nearly impossible to find at night (I didn't see any signage, and just followed a car through a parking lot of an apartment complex to get here, I did finally make it.  If I didn't have reservations, I would have walked out when I got into the "lobby".  It truly looked and smelled like a dorm, very institutional looking.  The lady at the desk was the same one that put me on hold and forgot about me when I called to ask a question about my reservation.  She couldn't have been less friendly, she was slow, didn't acknowledge anyone when they came in.  A lady came to the desk saying that she had been called by the operations manager about something, thinking maybe a package had been left for her, and the lady behind the counter shrugged her shoulders and made no attempt to help her.  She said you'll have to ask tomorrow, I don't know anything.  The person checking you in is the one who sets the tone for the stay, I didn't have a good feeling about the hotel if this is the caliber of employee at the desk.  The room itself was nice, it had a full refridgerator, dishwasher, and dishes.  The bed was very comfortable,...I needed a pet-friendly hotel on my trip through Houston, and I have stayed at Candlewood before, so I booked here.  Despite the fact that the entrance to the hotel is nearly impossible to find at night (I didn't see any signage, and just followed a car through a parking lot of an apartment complex to get here, I did finally make it.  If I didn't have reservations, I would have walked out when I got into the "lobby".  It truly looked and smelled like a dorm, very institutional looking.  The lady at the desk was the same one that put me on hold and forgot about me when I called to ask a question about my reservation.  She couldn't have been less friendly, she was slow, didn't acknowledge anyone when they came in.  A lady came to the desk saying that she had been called by the operations manager about something, thinking maybe a package had been left for her, and the lady behind the counter shrugged her shoulders and made no attempt to help her.  She said you'll have to ask tomorrow, I don't know anything.  The person checking you in is the one who sets the tone for the stay, I didn't have a good feeling about the hotel if this is the caliber of employee at the desk.  The room itself was nice, it had a full refridgerator, dishwasher, and dishes.  The bed was very comfortable, I have been travelling for weeks, and this was the most comfortable bed in a long time.  The pet fee is reasonable, $15 dollars is worth it.  I know the hotel has just been under renovation, but the stains on the carpet outside the elevators, and the lobby area need some work to add to the appeal of the common areas.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r146730970-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146730970</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I left a rival extended stay down the road because it was dirty, the kitchen flooded and the staff was rude. Needing a hotel in a hurry I called Candlewood to see if they could accommodate me for two weeks. They were great. I was so impressed with this location I contacted their corporate office. The front desk bent over backwards to get me settled in. The room was great. The recent remodels really paid off. The kitchen was loaded. The bathroom was spacious and stocked with soft towels. Flat screen TVs in the living room and bedroom areas. Comfortable posturpedic bed with nice sheets. Huge desk area for work. Plenty of seating without feeling cramped. Plenty of parking, workout facility and free laundry.Quiet hotel with good access to the highway and Westheimer rd.  My only complaint was the slow Internet. Other than that I am completely satisfied with my stay. I'll be back in Houston for another 3 weeks next year and this is where I will stay. I travel alot and I would recommend this hotel to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>I left a rival extended stay down the road because it was dirty, the kitchen flooded and the staff was rude. Needing a hotel in a hurry I called Candlewood to see if they could accommodate me for two weeks. They were great. I was so impressed with this location I contacted their corporate office. The front desk bent over backwards to get me settled in. The room was great. The recent remodels really paid off. The kitchen was loaded. The bathroom was spacious and stocked with soft towels. Flat screen TVs in the living room and bedroom areas. Comfortable posturpedic bed with nice sheets. Huge desk area for work. Plenty of seating without feeling cramped. Plenty of parking, workout facility and free laundry.Quiet hotel with good access to the highway and Westheimer rd.  My only complaint was the slow Internet. Other than that I am completely satisfied with my stay. I'll be back in Houston for another 3 weeks next year and this is where I will stay. I travel alot and I would recommend this hotel to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r138465209-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138465209</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Outstanding!!!</t>
+  </si>
+  <si>
+    <t>I have nothing but great things to say about this hotel. It was very clean and well maintained. They are pet friendly and have very reasonable fees. Joe at the front desk was super friendly and very helpful. The hotel has been updated and have done a beautiful job.I can not think of one bad thing to say except that I couldnt stay longer and had to return home. I will be frequenting Houston much more often now that I have found such an awesome hotel!!!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r136006456-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -944,9 +1430,6 @@
     <t>Same dull entrance as per usual for C.wood but the rooms! Super!!! So comfortable and well appointed. I usually stay across the street at Holiday Inn but no more! Much better price and MUCH better accomodations. I gather this place has had a recent face-lift. If so, it worked. The staff...wow...could not be any sweeter. The general manager, Felicia Mitchell, actually to the time to draw me a map to the location for a very important meeting. I did not trust my GPS. She was spot on! I did not catch the names of the other two young ladies working there but they were every bit as nice.I will be back to this one...Oh, beds were super comfortable...slept like a babyMoreShow less</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>Same dull entrance as per usual for C.wood but the rooms! Super!!! So comfortable and well appointed. I usually stay across the street at Holiday Inn but no more! Much better price and MUCH better accomodations. I gather this place has had a recent face-lift. If so, it worked. The staff...wow...could not be any sweeter. The general manager, Felicia Mitchell, actually to the time to draw me a map to the location for a very important meeting. I did not trust my GPS. She was spot on! I did not catch the names of the other two young ladies working there but they were every bit as nice.I will be back to this one...Oh, beds were super comfortable...slept like a babyMore</t>
   </si>
   <si>
@@ -995,6 +1478,42 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r99591949-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>99591949</t>
+  </si>
+  <si>
+    <t>03/09/2011</t>
+  </si>
+  <si>
+    <t>I would never recommend this place....even to my worst enemy.</t>
+  </si>
+  <si>
+    <t>Certain staff members were rude. Loud in evening. They don't do daily trash/room clean ups. It smells.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r98307699-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>98307699</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Average hotel, outstanding Service</t>
+  </si>
+  <si>
+    <t>This is your average busy Candlewood Suites as far as layout and rooms.  Same Fitness, same small store on honor system, and free laundry which is so convenient.  What makes this hotel stand out is the service.  The front desk people are outstanding as are the housekeepers.  I cannot say enough about how comfortable I was here.There is a Whole Foods not far and a ton of other restaurants.  Not a bad drive into the city either which I did on a daily basis for work in downtown Houston.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r86837054-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1004,9 +1523,6 @@
     <t>11/12/2010</t>
   </si>
   <si>
-    <t>Great Stay</t>
-  </si>
-  <si>
     <t>I was sent to this hotel after the one I had a reservation at for 3 months was overbooked for night 1.  The bed, VERY comfy!  The sheets were soft, the place was clean, the desk clerk was cheerful and helpful, the water pressure...to die for!!!!  Met the GM the next morning on the way out. She asked about my stay, thanked me for staying, recommended a few places I'd asked about, was also cheerful, professional and friendly.  Had I not prepaid a week with the first hotel I would Have ABSOLUTELY changed hotels.  I still might.  Nice place for a long or short stay.</t>
   </si>
   <si>
@@ -1047,6 +1563,55 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r54621124-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54621124</t>
+  </si>
+  <si>
+    <t>01/28/2010</t>
+  </si>
+  <si>
+    <t>This facility is "a little long in the tooth"</t>
+  </si>
+  <si>
+    <t>I used to stay in Candlewood Suites if there was one available. I also assumed that they are in good shape after staying for extended periods in units at Ft. Worth, Las Vegas and Madison WI. This unit needs to be sold and taken out of the CS family.
+My first room was fine for a while. The heat/AC unit leaked. They cleaned the heating unit, the leak stopped, and eventually the carpet dried out.
+I was down to the last week in my 6 week stay and I had no hot water in my room. I told the assistant manager and she said that she would have it fixed. The next morning I had no hot water again. I checked at the front desk and the log said that it was fixed.
+One of the girls on the staff was working at the front desk - she ran a report of open rooms. We began a search for a satisfactory room. We both went to the unit across the hall from my room. No warm water there either.
+We went to the opposite end of the property. Hot water but room was in need of remodeling. The carpet was frayed at he bathroom and entry doors. When they painted the painter sat a rooler on the bathroom sink counter top. There were odd stains on the ceiling.
+With so little time left I said OK. I could live with...I used to stay in Candlewood Suites if there was one available. I also assumed that they are in good shape after staying for extended periods in units at Ft. Worth, Las Vegas and Madison WI. This unit needs to be sold and taken out of the CS family.My first room was fine for a while. The heat/AC unit leaked. They cleaned the heating unit, the leak stopped, and eventually the carpet dried out.I was down to the last week in my 6 week stay and I had no hot water in my room. I told the assistant manager and she said that she would have it fixed. The next morning I had no hot water again. I checked at the front desk and the log said that it was fixed.One of the girls on the staff was working at the front desk - she ran a report of open rooms. We began a search for a satisfactory room. We both went to the unit across the hall from my room. No warm water there either.We went to the opposite end of the property. Hot water but room was in need of remodeling. The carpet was frayed at he bathroom and entry doors. When they painted the painter sat a rooler on the bathroom sink counter top. There were odd stains on the ceiling.With so little time left I said OK. I could live with the flaws if I had hot water.I should also point out that every water fixture in the two rooms leaked (into the sink.) There was always a small stream of water from the fixture to the sink drain. That's both sinks in two rooms. Seals need to be replaced.Please note that the other reviews are very old.If you automatically book Candlewood suites, you need to review your policy. I would suggest visiting the property and checking out the specific room  to be rented before making any commitments. Otherwise stay someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>I used to stay in Candlewood Suites if there was one available. I also assumed that they are in good shape after staying for extended periods in units at Ft. Worth, Las Vegas and Madison WI. This unit needs to be sold and taken out of the CS family.
+My first room was fine for a while. The heat/AC unit leaked. They cleaned the heating unit, the leak stopped, and eventually the carpet dried out.
+I was down to the last week in my 6 week stay and I had no hot water in my room. I told the assistant manager and she said that she would have it fixed. The next morning I had no hot water again. I checked at the front desk and the log said that it was fixed.
+One of the girls on the staff was working at the front desk - she ran a report of open rooms. We began a search for a satisfactory room. We both went to the unit across the hall from my room. No warm water there either.
+We went to the opposite end of the property. Hot water but room was in need of remodeling. The carpet was frayed at he bathroom and entry doors. When they painted the painter sat a rooler on the bathroom sink counter top. There were odd stains on the ceiling.
+With so little time left I said OK. I could live with...I used to stay in Candlewood Suites if there was one available. I also assumed that they are in good shape after staying for extended periods in units at Ft. Worth, Las Vegas and Madison WI. This unit needs to be sold and taken out of the CS family.My first room was fine for a while. The heat/AC unit leaked. They cleaned the heating unit, the leak stopped, and eventually the carpet dried out.I was down to the last week in my 6 week stay and I had no hot water in my room. I told the assistant manager and she said that she would have it fixed. The next morning I had no hot water again. I checked at the front desk and the log said that it was fixed.One of the girls on the staff was working at the front desk - she ran a report of open rooms. We began a search for a satisfactory room. We both went to the unit across the hall from my room. No warm water there either.We went to the opposite end of the property. Hot water but room was in need of remodeling. The carpet was frayed at he bathroom and entry doors. When they painted the painter sat a rooler on the bathroom sink counter top. There were odd stains on the ceiling.With so little time left I said OK. I could live with the flaws if I had hot water.I should also point out that every water fixture in the two rooms leaked (into the sink.) There was always a small stream of water from the fixture to the sink drain. That's both sinks in two rooms. Seals need to be replaced.Please note that the other reviews are very old.If you automatically book Candlewood suites, you need to review your policy. I would suggest visiting the property and checking out the specific room  to be rented before making any commitments. Otherwise stay someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r14188370-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14188370</t>
+  </si>
+  <si>
+    <t>03/10/2008</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>I've stayed here several times for business and it is always very comfortable.  The rooms are a good size for getting some work done.  The staff has always been hospitable.  The general store is convenient for a "make it yourself" dinner or a quick stack.  The work out equipement is pretty good for this class of hotel.  The free selection of DVDs is nice and a pretty good variety.  You don't get maid service every day but that is worth the $20 or so that I save by staying here.  Nice location, right off Beltway 8.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107929-r6036376-Candlewood_Suites_Houston_Westchase-Houston_Texas.html</t>
@@ -1615,11 +2180,17 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1663,7 +2234,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1671,15 +2242,15 @@
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1728,7 +2299,7 @@
         <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>68</v>
@@ -1745,14 +2316,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" t="s">
-        <v>70</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1768,40 +2335,40 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1810,10 +2377,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1829,52 +2400,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1911,37 +2482,37 @@
         <v>91</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" t="s">
-        <v>94</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1957,43 +2528,43 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>98</v>
       </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -2004,7 +2575,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2020,46 +2591,44 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2104,18 +2673,18 @@
         <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
         <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
@@ -2144,7 +2713,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2153,47 +2722,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2209,7 +2780,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2218,49 +2789,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2276,7 +2845,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2285,27 +2854,29 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>4</v>
@@ -2313,19 +2884,19 @@
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2341,7 +2912,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2350,31 +2921,33 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2386,7 +2959,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2402,52 +2975,54 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>146</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>147</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>148</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>149</v>
       </c>
-      <c r="L15" t="s">
-        <v>150</v>
-      </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>152</v>
-      </c>
-      <c r="X15" t="s">
-        <v>153</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -2463,48 +3038,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>155</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>160</v>
-      </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
@@ -2520,52 +3099,48 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>161</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>166</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -2581,7 +3156,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2590,49 +3165,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -2648,31 +3223,31 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
         <v>175</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>176</v>
-      </c>
-      <c r="J19" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>166</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
@@ -2680,26 +3255,24 @@
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -2715,7 +3288,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2724,39 +3297,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="P20" t="s"/>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -2772,54 +3355,56 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
         <v>189</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>190</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>191</v>
       </c>
-      <c r="K21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L21" t="s">
-        <v>193</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>194</v>
-      </c>
       <c r="O21" t="s">
-        <v>86</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>192</v>
+      </c>
+      <c r="X21" t="s">
+        <v>193</v>
+      </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -2856,35 +3441,27 @@
         <v>199</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>200</v>
-      </c>
-      <c r="O22" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -2900,52 +3477,54 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
         <v>204</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>205</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
         <v>206</v>
       </c>
-      <c r="K23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L23" t="s">
-        <v>208</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>188</v>
-      </c>
       <c r="O23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
       <c r="Y23" t="s">
         <v>209</v>
       </c>
@@ -2984,37 +3563,31 @@
         <v>214</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>215</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
         <v>216</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="25">
@@ -3030,56 +3603,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>218</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>219</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>220</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>221</v>
       </c>
-      <c r="L25" t="s">
-        <v>222</v>
-      </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="X25" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
@@ -3095,7 +3664,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3104,45 +3673,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -3158,7 +3721,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3167,39 +3730,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
@@ -3215,7 +3788,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3224,22 +3797,22 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
@@ -3254,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -3276,7 +3849,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3285,37 +3858,31 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3324,14 +3891,10 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>249</v>
-      </c>
-      <c r="X29" t="s">
-        <v>250</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
@@ -3347,7 +3910,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3356,53 +3919,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="X30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
@@ -3418,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3427,49 +3986,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>86</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
@@ -3485,7 +4044,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3494,53 +4053,45 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="X32" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
@@ -3556,7 +4107,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3565,53 +4116,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>3</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="X33" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34">
@@ -3627,7 +4168,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3636,53 +4177,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>290</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
         <v>291</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="35">
@@ -3725,23 +4252,19 @@
         <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3749,7 +4272,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
@@ -3765,62 +4288,56 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
         <v>300</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>301</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>302</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>303</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
         <v>304</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>305</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
         <v>2</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>307</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="37">
@@ -3836,31 +4353,31 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>309</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>310</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>311</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>312</v>
       </c>
-      <c r="L37" t="s">
-        <v>313</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
@@ -3868,15 +4385,11 @@
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -3887,7 +4400,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38">
@@ -3903,58 +4416,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
         <v>315</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>316</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>317</v>
       </c>
-      <c r="K38" t="s">
-        <v>318</v>
-      </c>
-      <c r="L38" t="s">
-        <v>319</v>
-      </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
@@ -3970,50 +4473,46 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" t="s">
         <v>321</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>322</v>
       </c>
-      <c r="J39" t="s">
-        <v>323</v>
-      </c>
-      <c r="K39" t="s">
-        <v>324</v>
-      </c>
-      <c r="L39" t="s">
-        <v>325</v>
-      </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4021,7 +4520,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
@@ -4037,56 +4536,56 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" t="s">
         <v>327</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>328</v>
       </c>
-      <c r="J40" t="s">
-        <v>329</v>
-      </c>
-      <c r="K40" t="s">
-        <v>330</v>
-      </c>
-      <c r="L40" t="s">
-        <v>331</v>
-      </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
       </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>2</v>
       </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>329</v>
+      </c>
+      <c r="X40" t="s">
+        <v>330</v>
+      </c>
       <c r="Y40" t="s">
         <v>331</v>
       </c>
@@ -4104,58 +4603,1920 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
         <v>333</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>334</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>335</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>336</v>
       </c>
-      <c r="L41" t="s">
-        <v>337</v>
-      </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>329</v>
+      </c>
+      <c r="X41" t="s">
+        <v>330</v>
+      </c>
       <c r="Y41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>338</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
         <v>339</v>
+      </c>
+      <c r="J42" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s">
+        <v>341</v>
+      </c>
+      <c r="L42" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>350</v>
+      </c>
+      <c r="J44" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s">
+        <v>353</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>354</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J45" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>354</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>354</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>365</v>
+      </c>
+      <c r="X46" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" t="s">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>373</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s">
+        <v>383</v>
+      </c>
+      <c r="L49" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>386</v>
+      </c>
+      <c r="X49" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s">
+        <v>113</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>395</v>
+      </c>
+      <c r="X50" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s">
+        <v>402</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>405</v>
+      </c>
+      <c r="J52" t="s">
+        <v>406</v>
+      </c>
+      <c r="K52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" t="s">
+        <v>408</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>379</v>
+      </c>
+      <c r="O52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s">
+        <v>413</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>379</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>414</v>
+      </c>
+      <c r="X53" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" t="s">
+        <v>421</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>422</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>423</v>
+      </c>
+      <c r="X54" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>431</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>432</v>
+      </c>
+      <c r="X55" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>436</v>
+      </c>
+      <c r="J56" t="s">
+        <v>437</v>
+      </c>
+      <c r="K56" t="s">
+        <v>438</v>
+      </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>431</v>
+      </c>
+      <c r="O56" t="s">
+        <v>113</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>440</v>
+      </c>
+      <c r="X56" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>440</v>
+      </c>
+      <c r="X57" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>454</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>455</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>456</v>
+      </c>
+      <c r="J59" t="s">
+        <v>457</v>
+      </c>
+      <c r="K59" t="s">
+        <v>458</v>
+      </c>
+      <c r="L59" t="s">
+        <v>459</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>454</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>461</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>462</v>
+      </c>
+      <c r="J60" t="s">
+        <v>463</v>
+      </c>
+      <c r="K60" t="s">
+        <v>464</v>
+      </c>
+      <c r="L60" t="s">
+        <v>465</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>466</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>467</v>
+      </c>
+      <c r="X60" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>471</v>
+      </c>
+      <c r="J61" t="s">
+        <v>472</v>
+      </c>
+      <c r="K61" t="s">
+        <v>473</v>
+      </c>
+      <c r="L61" t="s">
+        <v>474</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>475</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>476</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>477</v>
+      </c>
+      <c r="J62" t="s">
+        <v>478</v>
+      </c>
+      <c r="K62" t="s">
+        <v>479</v>
+      </c>
+      <c r="L62" t="s">
+        <v>480</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>481</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>482</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>483</v>
+      </c>
+      <c r="J63" t="s">
+        <v>484</v>
+      </c>
+      <c r="K63" t="s">
+        <v>485</v>
+      </c>
+      <c r="L63" t="s">
+        <v>486</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>487</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>489</v>
+      </c>
+      <c r="J64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s">
+        <v>446</v>
+      </c>
+      <c r="L64" t="s">
+        <v>491</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>492</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>493</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>494</v>
+      </c>
+      <c r="J65" t="s">
+        <v>495</v>
+      </c>
+      <c r="K65" t="s">
+        <v>496</v>
+      </c>
+      <c r="L65" t="s">
+        <v>497</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>498</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>499</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>500</v>
+      </c>
+      <c r="J66" t="s">
+        <v>501</v>
+      </c>
+      <c r="K66" t="s">
+        <v>502</v>
+      </c>
+      <c r="L66" t="s">
+        <v>503</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>504</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>505</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>510</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>512</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>513</v>
+      </c>
+      <c r="J68" t="s">
+        <v>514</v>
+      </c>
+      <c r="K68" t="s">
+        <v>515</v>
+      </c>
+      <c r="L68" t="s">
+        <v>516</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>517</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>518</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>519</v>
+      </c>
+      <c r="J69" t="s">
+        <v>520</v>
+      </c>
+      <c r="K69" t="s">
+        <v>521</v>
+      </c>
+      <c r="L69" t="s">
+        <v>522</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>523</v>
+      </c>
+      <c r="O69" t="s">
+        <v>113</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
